--- a/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
+++ b/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruebas Unitarias" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruebas Integrales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="234">
   <si>
     <t>Historial de Versiones</t>
   </si>
@@ -113,559 +114,896 @@
     <t>Evidencia de Corrección</t>
   </si>
   <si>
+    <t>Juan Jose Paz Chalco</t>
+  </si>
+  <si>
+    <t>Carlos Sanchez Aquino</t>
+  </si>
+  <si>
+    <t>Ejecuta casos de prueba</t>
+  </si>
+  <si>
+    <t>Agrega casos de prueba</t>
+  </si>
+  <si>
+    <t>Validar usuario</t>
+  </si>
+  <si>
+    <t>los usuarios se tienen que loguear para poder utilizar los diferentes módulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar estados del pedido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el usuario administrador puede cambiar el estado según los pasos del proceso de envió del pedido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar platos </t>
+  </si>
+  <si>
+    <t>el sistema debe mostrar en el modulo del administrador los platos agregados en el sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminar plato </t>
+  </si>
+  <si>
+    <t>Elimina de la carta el platillo seleccionado</t>
+  </si>
+  <si>
+    <t>mostrar stock de cada tipo de plato</t>
+  </si>
+  <si>
+    <t>Muestra la cantidad disponible del platillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizar plato </t>
+  </si>
+  <si>
+    <t>Muestra una ventana para editar datos del platillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar nuevo plato </t>
+  </si>
+  <si>
+    <t>Muestra ventana para agregar un nuevo plato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validar datos de nuevo plato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valida cada campo de agregar un nuevo plato </t>
+  </si>
+  <si>
+    <t>boton cancelar para salir de la ventana nuevo plato</t>
+  </si>
+  <si>
+    <t>Cierra la ventana nuevo plato</t>
+  </si>
+  <si>
+    <t>logue de cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permite loguear al cliente con su correo electronico y contraseña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">validar datos de login cliente </t>
+  </si>
+  <si>
+    <t>valida los datos de la ventana de logueo del cliente</t>
+  </si>
+  <si>
+    <t>una vez logueado el sistema debe mostrar la ventana de catalogo de platos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar producto al carrito de compras </t>
+  </si>
+  <si>
+    <t>Agrega el plato al carrito de compras</t>
+  </si>
+  <si>
+    <t>mostrar carrito de compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando se preciona el icono carrito de compras muestra una ventana con los productos agregados en el carrito de compras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar o reducir cantidad de platos </t>
+  </si>
+  <si>
+    <t>En el carrito de compras debe permitir agregar o reducir la cantidad de pedidos y eliminar el plato agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer un pedido desde el celular </t>
+  </si>
+  <si>
+    <t xml:space="preserve">en el carrito de compras debe haber un botonn comprar para realizar el pedido </t>
+  </si>
+  <si>
+    <t>mostrar mensaje de compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando se de a comprar debe mostrar una ventana de se realizo la compra </t>
+  </si>
+  <si>
+    <t>mostrar ventana registrar  cliente</t>
+  </si>
+  <si>
+    <t>el sistema en la ventana de logueo del aplicativo movil debe haber un boton registrarse que me muestre un formulario</t>
+  </si>
+  <si>
+    <t>validar campos de registro cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cada campo debe estar validado según el tipo de campo </t>
+  </si>
+  <si>
+    <t>registrar un cliente</t>
+  </si>
+  <si>
+    <t>el boton registrar debe mandar un mensaje de registrado satisfactoriamente y el usuario cliente ya debe estar agregado en el sistema</t>
+  </si>
+  <si>
+    <t>cambiar estado de pedido cocinero</t>
+  </si>
+  <si>
+    <t>el sistema cuando este en el modulo cocina debe permitir cambiar el estado del pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrar sesion cocinero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando se preciona el boton cerrar sesion el sistema debe mandar un mensaje de confirmacion para poder cerrar la sesion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrar sesion administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrar sesion cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerrar sesion caja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingresar a una ventana por url modulo administrador </t>
+  </si>
+  <si>
+    <t>en la url no debe permitir redireccionarme a cualquier ventana del administrador sin haberme logueado previamente</t>
+  </si>
+  <si>
+    <t>mostrar reportes atendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en el modulo de administrador debe mostrar el reporte seleccionado en el menu </t>
+  </si>
+  <si>
+    <t>mostrar reportes devueltos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar reportes platos mas pedidos </t>
+  </si>
+  <si>
+    <t>mostrar reportes ventas del mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar reportes filtro de pedidos </t>
+  </si>
+  <si>
+    <t>ingreso nombre empleado</t>
+  </si>
+  <si>
+    <t>el campo nombre no de permitir ingresar numeros ni caracteres especiales y debe de cumplir un minimo de caracteres caso contrario muestra alerta</t>
+  </si>
+  <si>
+    <t>ingreso apellido empleado</t>
+  </si>
+  <si>
+    <t>el campo apellido no de permitir ingresar numeros ni caracteres especiales y debe de cumplir un minimo de caracteres</t>
+  </si>
+  <si>
+    <t>ingreso dni empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el campo dini no debe permitir ingresar letras ni caracteres especiales </t>
+  </si>
+  <si>
+    <t>seleccione sexo empleado</t>
+  </si>
+  <si>
+    <t>se debe de seleccionar una opcion de la lista de sexo caso conytrario muestra mensaje de alerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccione una fecha de nacimiento de empleado </t>
+  </si>
+  <si>
+    <t>se debe de seleccionar una fecha caso contario muestra mensaje de alerta</t>
+  </si>
+  <si>
+    <t>ingrese una direccion de empleado</t>
+  </si>
+  <si>
+    <t>el campo direccion no de permitir caracteres especiales</t>
+  </si>
+  <si>
+    <t>ingrese celular empleado</t>
+  </si>
+  <si>
+    <t>el campo celular no debe permiitir ingresar letras ni caracteres especiales</t>
+  </si>
+  <si>
+    <t>ingrese usuario empleado</t>
+  </si>
+  <si>
+    <t>el campo usuario no debe permitir caracteres especiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingrese email empleado </t>
+  </si>
+  <si>
+    <t>el campo email debe ser validado según su estructura</t>
+  </si>
+  <si>
+    <t>ingrese password empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el campo password debe tener un minimo de caracteres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">el campo confirmar password debe tener un minimo de caracteres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccione cargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccione un cargo caso contrario muestra alerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccione estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selecione un estado caso contrario muestra mensaje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccionen fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selecione una fecha o lo dejas sin hacer accion ya que tomara la fecha del dia </t>
+  </si>
+  <si>
+    <t>click boton guardar</t>
+  </si>
+  <si>
+    <t>al dar mas de dos click muestra mesaje de que ya se guardo este empleado</t>
+  </si>
+  <si>
+    <t>buscar por cualquier campo de la lista de emepleado</t>
+  </si>
+  <si>
+    <t>cada vres que se este ingresando se mostrara los resultados según caracteres ingresados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccionar lista de cuanto registros se quiere mostar en la lista de empleado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccione un cantidad se registros para mostrar en la lista </t>
+  </si>
+  <si>
+    <t>click boton anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">al dar click en este boton si la lista de empleados es larga y según los regsitros selecionados de la lista de registros se podra cambiar a otra lista o no </t>
+  </si>
+  <si>
+    <t>click boton siguinee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click en los nombre de la tabla </t>
+  </si>
+  <si>
+    <t>si damos click en un nombre de la tabla este ordenara asencdentemente o decendentemente</t>
+  </si>
+  <si>
+    <t>Regresar pedido a cocina</t>
+  </si>
+  <si>
+    <t>comentario antes de devolver  a cocina desde el modulo de caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviar pedido a cocina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al devolver a cocina se debe quitar de la lista de pedidos de caja </t>
+  </si>
+  <si>
+    <t>Mostrar Monto Total  en letras boleta de pago</t>
+  </si>
+  <si>
+    <t>El monto total en letras debe aparecer 00/000 nuevos soles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar el repartidor para el pedido </t>
+  </si>
+  <si>
+    <t>antes de realizar la boleta se asigna el repartidor para el envio del pedido</t>
+  </si>
+  <si>
+    <t>generar boleta de pedido</t>
+  </si>
+  <si>
+    <t>Después de imprimir comprobante de pago, debe salir de la lista y debe pasar a otra lista</t>
+  </si>
+  <si>
+    <t>clic boton cancelado para finalizar el documento</t>
+  </si>
+  <si>
+    <t>cuando estemos queramos finalizar un pedido nos mostrar un boton para dar por finalizado el documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar total de ventas del mes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando se ingrese al reporte ventas del mes debe mostrar en la parte inferior el total de las ventas del mes </t>
+  </si>
+  <si>
+    <t>editar cliente campo password</t>
+  </si>
+  <si>
+    <t>el campo password debe estar oculto y no signos de *</t>
+  </si>
+  <si>
+    <t>eliminar cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando el cliente seleccionado se elimine debe mostrar un mensaje de confirmacion </t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>2.Ejecutado-Correcto</t>
+  </si>
+  <si>
+    <t>correcta</t>
+  </si>
+  <si>
+    <t>3.Corregido</t>
+  </si>
+  <si>
+    <t>2.Ejectuado-Incorrecto</t>
+  </si>
+  <si>
+    <t>incorrecta</t>
+  </si>
+  <si>
+    <t>(PF)Prueba Unitaria</t>
+  </si>
+  <si>
+    <t>(PF)Prueba de Integración</t>
+  </si>
+  <si>
+    <t>(PNF)Prueba de Seguridad</t>
+  </si>
+  <si>
+    <t>(PF)Prueba de regresión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fue corregida la validacion en el campo contraseña </t>
+  </si>
+  <si>
+    <t>fue corregido el agregar el comentario antes de devolve a cocina</t>
+  </si>
+  <si>
+    <t>fue corregido el pedido que se quedaba pegado en modulo caja</t>
+  </si>
+  <si>
+    <t>fue corregido el total en letras  con el formato establecido</t>
+  </si>
+  <si>
+    <t>fue corregido la opcion del repartidor antes de realizar la boleta</t>
+  </si>
+  <si>
+    <t>fue corregido el cambio de ventanas del pedido cuando se genera la boleta</t>
+  </si>
+  <si>
+    <t>El botón ahora es mas detallado y dece pagar o cobrar en vez de cancelar</t>
+  </si>
+  <si>
+    <t>El botón debería decir pagar o cobrar en vez de cancelar</t>
+  </si>
+  <si>
+    <t>el campo ya muestra con signos de *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muestra mensaje de confirmacion de eliminacion </t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\validacion.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\carta.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\eliminarplato.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\stockplato.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\actualizarplato.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\nuevoplato.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\validardatosplato.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\cerrarventana.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\logincliente.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\agregarcarrito.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\catalofo.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\mostrarCarrito.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\mascarrit.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\comprar.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\mensajecompra.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\registrarcliente.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\1.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\2.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\3.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\4.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\5.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\6.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\7.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\8.png</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\reprote.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\valida empleado.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\empleado.JPG</t>
+  </si>
+  <si>
+    <t>G:\pruebas dinamicas\cerrrarsesion.JPG</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>CATALOGO PLATOS</t>
+  </si>
+  <si>
+    <t>LOGIN CLIENTE</t>
+  </si>
+  <si>
+    <t>LOGIN EMPLEADOS</t>
+  </si>
+  <si>
+    <t>CERRAR SESION COCINERO</t>
+  </si>
+  <si>
+    <t>CERRAR SESION ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>CERRAR SESION CLIENTE</t>
+  </si>
+  <si>
+    <t>CERRAR SESION CAJA</t>
+  </si>
+  <si>
+    <t>MODULO ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>REPORTES ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingrese confirmar password </t>
+  </si>
+  <si>
+    <t>MODULO COCINA</t>
+  </si>
+  <si>
+    <t>MODULO CLIENTE</t>
+  </si>
+  <si>
+    <t>MODULO CAJA</t>
+  </si>
+  <si>
+    <t>Ricardo Palacios Arce</t>
+  </si>
+  <si>
+    <t>GESTION DE PEDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrar ventana catalogo de platos </t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
     <t xml:space="preserve">sistema de pedidos delivery para restaurant cevicheria    
-sistema de pedidos delivery para restaurant cevicheria    
+sistema de pedidos delivery para restaurant cevicheria    </t>
+  </si>
+  <si>
+    <t>Plan de Pruebas de Integración</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">Para cada caso de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">prueba se debe mostrar la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>siguiente información:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Número del caso de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">prueba: Número secuencia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">que hace referencia a los </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">casos de pruebas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>definidos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Componentes a los que </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">hace referencia cada caso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>de prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Prerrequisitos que se </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">deben cumplir para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">realizar cada caso de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Descripción de cada uno </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">de los pasos a realizar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">para realizar el caso de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>oprueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Los datos que se </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>utilizarán de entrada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- La salida que se espera </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>de ejectura cada paso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
+- Las columnas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">sombreadas, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">correspondientes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">'Resultados' se rellenarán </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">una vez ejecutadas las </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">pruebas, obteniendo así el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">Informe de Resultado de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t>Pruebas de Integración</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="NewsGotT"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Juan Jose Paz Chalco</t>
-  </si>
-  <si>
-    <t>Carlos Sanchez Aquino</t>
-  </si>
-  <si>
-    <t>Ejecuta casos de prueba</t>
-  </si>
-  <si>
-    <t>Agrega casos de prueba</t>
-  </si>
-  <si>
-    <t>Validar usuario</t>
-  </si>
-  <si>
-    <t>los usuarios se tienen que loguear para poder utilizar los diferentes módulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar estados del pedido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">el usuario administrador puede cambiar el estado según los pasos del proceso de envió del pedido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostrar platos </t>
-  </si>
-  <si>
-    <t>el sistema debe mostrar en el modulo del administrador los platos agregados en el sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eliminar plato </t>
-  </si>
-  <si>
-    <t>Elimina de la carta el platillo seleccionado</t>
-  </si>
-  <si>
-    <t>mostrar stock de cada tipo de plato</t>
-  </si>
-  <si>
-    <t>Muestra la cantidad disponible del platillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actualizar plato </t>
-  </si>
-  <si>
-    <t>Muestra una ventana para editar datos del platillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agregar nuevo plato </t>
-  </si>
-  <si>
-    <t>Muestra ventana para agregar un nuevo plato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validar datos de nuevo plato </t>
-  </si>
-  <si>
-    <t xml:space="preserve">valida cada campo de agregar un nuevo plato </t>
-  </si>
-  <si>
-    <t>boton cancelar para salir de la ventana nuevo plato</t>
-  </si>
-  <si>
-    <t>Cierra la ventana nuevo plato</t>
-  </si>
-  <si>
-    <t>logue de cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permite loguear al cliente con su correo electronico y contraseña </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validar datos de login cliente </t>
-  </si>
-  <si>
-    <t>valida los datos de la ventana de logueo del cliente</t>
-  </si>
-  <si>
-    <t>una vez logueado el sistema debe mostrar la ventana de catalogo de platos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agregar producto al carrito de compras </t>
-  </si>
-  <si>
-    <t>Agrega el plato al carrito de compras</t>
-  </si>
-  <si>
-    <t>mostrar carrito de compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuando se preciona el icono carrito de compras muestra una ventana con los productos agregados en el carrito de compras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">agregar o reducir cantidad de platos </t>
-  </si>
-  <si>
-    <t>En el carrito de compras debe permitir agregar o reducir la cantidad de pedidos y eliminar el plato agregado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer un pedido desde el celular </t>
-  </si>
-  <si>
-    <t xml:space="preserve">en el carrito de compras debe haber un botonn comprar para realizar el pedido </t>
-  </si>
-  <si>
-    <t>mostrar mensaje de compra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuando se de a comprar debe mostrar una ventana de se realizo la compra </t>
-  </si>
-  <si>
-    <t>mostrar ventana registrar  cliente</t>
-  </si>
-  <si>
-    <t>el sistema en la ventana de logueo del aplicativo movil debe haber un boton registrarse que me muestre un formulario</t>
-  </si>
-  <si>
-    <t>validar campos de registro cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cada campo debe estar validado según el tipo de campo </t>
-  </si>
-  <si>
-    <t>registrar un cliente</t>
-  </si>
-  <si>
-    <t>el boton registrar debe mandar un mensaje de registrado satisfactoriamente y el usuario cliente ya debe estar agregado en el sistema</t>
-  </si>
-  <si>
-    <t>cambiar estado de pedido cocinero</t>
-  </si>
-  <si>
-    <t>el sistema cuando este en el modulo cocina debe permitir cambiar el estado del pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerrar sesion cocinero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuando se preciona el boton cerrar sesion el sistema debe mandar un mensaje de confirmacion para poder cerrar la sesion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerrar sesion administrador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerrar sesion cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerrar sesion caja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingresar a una ventana por url modulo administrador </t>
-  </si>
-  <si>
-    <t>en la url no debe permitir redireccionarme a cualquier ventana del administrador sin haberme logueado previamente</t>
-  </si>
-  <si>
-    <t>mostrar reportes atendidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en el modulo de administrador debe mostrar el reporte seleccionado en el menu </t>
-  </si>
-  <si>
-    <t>mostrar reportes devueltos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostrar reportes platos mas pedidos </t>
-  </si>
-  <si>
-    <t>mostrar reportes ventas del mes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostrar reportes filtro de pedidos </t>
-  </si>
-  <si>
-    <t>ingreso nombre empleado</t>
-  </si>
-  <si>
-    <t>el campo nombre no de permitir ingresar numeros ni caracteres especiales y debe de cumplir un minimo de caracteres caso contrario muestra alerta</t>
-  </si>
-  <si>
-    <t>ingreso apellido empleado</t>
-  </si>
-  <si>
-    <t>el campo apellido no de permitir ingresar numeros ni caracteres especiales y debe de cumplir un minimo de caracteres</t>
-  </si>
-  <si>
-    <t>ingreso dni empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el campo dini no debe permitir ingresar letras ni caracteres especiales </t>
-  </si>
-  <si>
-    <t>seleccione sexo empleado</t>
-  </si>
-  <si>
-    <t>se debe de seleccionar una opcion de la lista de sexo caso conytrario muestra mensaje de alerta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccione una fecha de nacimiento de empleado </t>
-  </si>
-  <si>
-    <t>se debe de seleccionar una fecha caso contario muestra mensaje de alerta</t>
-  </si>
-  <si>
-    <t>ingrese una direccion de empleado</t>
-  </si>
-  <si>
-    <t>el campo direccion no de permitir caracteres especiales</t>
-  </si>
-  <si>
-    <t>ingrese celular empleado</t>
-  </si>
-  <si>
-    <t>el campo celular no debe permiitir ingresar letras ni caracteres especiales</t>
-  </si>
-  <si>
-    <t>ingrese usuario empleado</t>
-  </si>
-  <si>
-    <t>el campo usuario no debe permitir caracteres especiales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingrese email empleado </t>
-  </si>
-  <si>
-    <t>el campo email debe ser validado según su estructura</t>
-  </si>
-  <si>
-    <t>ingrese password empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el campo password debe tener un minimo de caracteres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">el campo confirmar password debe tener un minimo de caracteres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccione cargo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccione un cargo caso contrario muestra alerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccione estado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">selecione un estado caso contrario muestra mensaje </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccionen fecha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">selecione una fecha o lo dejas sin hacer accion ya que tomara la fecha del dia </t>
-  </si>
-  <si>
-    <t>click boton guardar</t>
-  </si>
-  <si>
-    <t>al dar mas de dos click muestra mesaje de que ya se guardo este empleado</t>
-  </si>
-  <si>
-    <t>buscar por cualquier campo de la lista de emepleado</t>
-  </si>
-  <si>
-    <t>cada vres que se este ingresando se mostrara los resultados según caracteres ingresados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccionar lista de cuanto registros se quiere mostar en la lista de empleado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccione un cantidad se registros para mostrar en la lista </t>
-  </si>
-  <si>
-    <t>click boton anterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al dar click en este boton si la lista de empleados es larga y según los regsitros selecionados de la lista de registros se podra cambiar a otra lista o no </t>
-  </si>
-  <si>
-    <t>click boton siguinee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click en los nombre de la tabla </t>
-  </si>
-  <si>
-    <t>si damos click en un nombre de la tabla este ordenara asencdentemente o decendentemente</t>
-  </si>
-  <si>
-    <t>Regresar pedido a cocina</t>
-  </si>
-  <si>
-    <t>comentario antes de devolver  a cocina desde el modulo de caja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enviar pedido a cocina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al devolver a cocina se debe quitar de la lista de pedidos de caja </t>
-  </si>
-  <si>
-    <t>Mostrar Monto Total  en letras boleta de pago</t>
-  </si>
-  <si>
-    <t>El monto total en letras debe aparecer 00/000 nuevos soles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignar el repartidor para el pedido </t>
-  </si>
-  <si>
-    <t>antes de realizar la boleta se asigna el repartidor para el envio del pedido</t>
-  </si>
-  <si>
-    <t>generar boleta de pedido</t>
-  </si>
-  <si>
-    <t>Después de imprimir comprobante de pago, debe salir de la lista y debe pasar a otra lista</t>
-  </si>
-  <si>
-    <t>clic boton cancelado para finalizar el documento</t>
-  </si>
-  <si>
-    <t>cuando estemos queramos finalizar un pedido nos mostrar un boton para dar por finalizado el documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostrar total de ventas del mes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuando se ingrese al reporte ventas del mes debe mostrar en la parte inferior el total de las ventas del mes </t>
-  </si>
-  <si>
-    <t>editar cliente campo password</t>
-  </si>
-  <si>
-    <t>el campo password debe estar oculto y no signos de *</t>
-  </si>
-  <si>
-    <t>eliminar cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuando el cliente seleccionado se elimine debe mostrar un mensaje de confirmacion </t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>2.Ejecutado-Correcto</t>
-  </si>
-  <si>
-    <t>correcta</t>
-  </si>
-  <si>
-    <t>3.Corregido</t>
-  </si>
-  <si>
-    <t>2.Ejectuado-Incorrecto</t>
-  </si>
-  <si>
-    <t>incorrecta</t>
-  </si>
-  <si>
-    <t>(PF)Prueba Unitaria</t>
-  </si>
-  <si>
-    <t>(PF)Prueba de Integración</t>
-  </si>
-  <si>
-    <t>(PNF)Prueba de Seguridad</t>
-  </si>
-  <si>
-    <t>(PF)Prueba de regresión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fue corregida la validacion en el campo contraseña </t>
-  </si>
-  <si>
-    <t>fue corregido el agregar el comentario antes de devolve a cocina</t>
-  </si>
-  <si>
-    <t>fue corregido el pedido que se quedaba pegado en modulo caja</t>
-  </si>
-  <si>
-    <t>fue corregido el total en letras  con el formato establecido</t>
-  </si>
-  <si>
-    <t>fue corregido la opcion del repartidor antes de realizar la boleta</t>
-  </si>
-  <si>
-    <t>fue corregido el cambio de ventanas del pedido cuando se genera la boleta</t>
-  </si>
-  <si>
-    <t>El botón ahora es mas detallado y dece pagar o cobrar en vez de cancelar</t>
-  </si>
-  <si>
-    <t>El botón debería decir pagar o cobrar en vez de cancelar</t>
-  </si>
-  <si>
-    <t>el campo ya muestra con signos de *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muestra mensaje de confirmacion de eliminacion </t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\validacion.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\carta.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\eliminarplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\stockplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\actualizarplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\nuevoplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\validardatosplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\cerrarventana.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\logincliente.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\agregarcarrito.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\catalofo.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mostrarCarrito.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mascarrit.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\comprar.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mensajecompra.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\registrarcliente.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\1.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\2.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\3.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\4.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\5.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\6.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\7.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\8.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\reprote.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\valida empleado.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\empleado.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\cerrrarsesion.JPG</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>CATALOGO PLATOS</t>
-  </si>
-  <si>
-    <t>LOGIN CLIENTE</t>
-  </si>
-  <si>
-    <t>LOGIN EMPLEADOS</t>
-  </si>
-  <si>
-    <t>CERRAR SESION COCINERO</t>
-  </si>
-  <si>
-    <t>CERRAR SESION ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>CERRAR SESION CLIENTE</t>
-  </si>
-  <si>
-    <t>CERRAR SESION CAJA</t>
-  </si>
-  <si>
-    <t>MODULO ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>REPORTES ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>EMPLEADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingrese confirmar password </t>
-  </si>
-  <si>
-    <t>MODULO COCINA</t>
-  </si>
-  <si>
-    <t>MODULO CLIENTE</t>
-  </si>
-  <si>
-    <t>MODULO CAJA</t>
-  </si>
-  <si>
-    <t>Ricardo Palacios Arce</t>
-  </si>
-  <si>
-    <t>GESTION DE PEDIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mostrar ventana catalogo de platos </t>
-  </si>
-  <si>
-    <t>Modulo</t>
+    </r>
+  </si>
+  <si>
+    <t>Número del Caso de Prueba</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Descripción de lo que se Probará</t>
+  </si>
+  <si>
+    <t>Prerrequisitos</t>
+  </si>
+  <si>
+    <t>&lt;&lt;CA0XX&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;CA0YY&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 3&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;CAXX&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>Descripción de pasos a seguir</t>
+  </si>
+  <si>
+    <t>Datos Entrada</t>
+  </si>
+  <si>
+    <t>Salida Esperada</t>
+  </si>
+  <si>
+    <t>¿OK?</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>&lt;Paso 1.   ..... &gt;</t>
+  </si>
+  <si>
+    <t>&lt;Paso 2.   ..... &gt;</t>
+  </si>
+  <si>
+    <t>. . . .</t>
+  </si>
+  <si>
+    <t>&lt;Paso n.   ..... &gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;CAYY&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Se deberá inserta una ficha, por cada caso de prueba (&lt;&lt;CAXX&gt;&gt;) definido.</t>
+  </si>
+  <si>
+    <t>Pepe Tiburón</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -717,8 +1055,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="NewsGotT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="NewsGotT"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="NewsGotT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NewsGotT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NewsGotT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,8 +1139,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -855,8 +1245,342 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="double">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -865,8 +1589,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -962,8 +1687,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="8" xr:uid="{510351E2-DA61-49A4-A9FF-367C4A7BCBBD}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1072,6 +1871,58 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99090</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1458000" cy="1010159"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55548DA1-E312-495C-9D45-88F56936B29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:lum/>
+          <a:alphaModFix/>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668250" y="1089690"/>
+          <a:ext cx="1458000" cy="1010159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1340,11 +2191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
     <col min="2" max="2" width="23.8984375" customWidth="1"/>
@@ -1362,7 +2213,7 @@
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
       <c r="B1" s="23" t="s">
         <v>5</v>
@@ -1380,16 +2231,16 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="15.6" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="25"/>
+        <v>209</v>
+      </c>
+      <c r="E2" s="24"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -1400,7 +2251,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="29" t="s">
         <v>22</v>
@@ -1420,14 +2271,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -1440,12 +2291,12 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -1458,12 +2309,12 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1476,7 +2327,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="28" t="s">
         <v>0</v>
@@ -1494,7 +2345,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -1520,7 +2371,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1531,13 +2382,13 @@
         <v>42999</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1548,7 +2399,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -1559,13 +2410,13 @@
         <v>42999</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1576,7 +2427,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -1587,13 +2438,13 @@
         <v>42999</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1604,7 +2455,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -1622,7 +2473,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:15">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -1640,7 +2491,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1655,7 +2506,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15">
       <c r="A15" s="37" t="s">
         <v>20</v>
       </c>
@@ -1680,12 +2531,12 @@
       <c r="N15" s="39"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1723,18 +2574,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15">
       <c r="A17" s="12">
         <v>1</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>34</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -1742,36 +2593,36 @@
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L17" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15">
       <c r="A18" s="12">
         <v>2</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -1779,36 +2630,36 @@
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L18" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15">
       <c r="A19" s="12">
         <v>3</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>38</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -1816,36 +2667,36 @@
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L19" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15">
       <c r="A20" s="12">
         <v>4</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -1853,36 +2704,36 @@
         <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15">
       <c r="A21" s="12">
         <v>5</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -1890,36 +2741,36 @@
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J21" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L21" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15">
       <c r="A22" s="12">
         <v>6</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -1927,36 +2778,36 @@
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15">
       <c r="A23" s="12">
         <v>7</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -1964,36 +2815,36 @@
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J23" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15">
       <c r="A24" s="12">
         <v>8</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -2001,36 +2852,36 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I24" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L24" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15">
       <c r="A25" s="12">
         <v>9</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>50</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -2038,36 +2889,36 @@
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J25" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L25" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15">
       <c r="A26" s="12">
         <v>10</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>51</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>52</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -2075,36 +2926,36 @@
         <v>14</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L26" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15">
       <c r="A27" s="12">
         <v>11</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>54</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -2112,40 +2963,40 @@
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="13">
         <v>43000</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M27" s="13">
         <v>43001</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15">
       <c r="A28" s="12">
         <v>12</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
@@ -2153,36 +3004,36 @@
         <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15">
       <c r="A29" s="12">
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -2190,36 +3041,36 @@
         <v>14</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L29" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15">
       <c r="A30" s="12">
         <v>14</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -2227,36 +3078,36 @@
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J30" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L30" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15">
       <c r="A31" s="12">
         <v>15</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="35" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -2264,36 +3115,36 @@
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L31" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15">
       <c r="A32" s="12">
         <v>16</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="35" t="s">
         <v>62</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>63</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -2301,36 +3152,36 @@
         <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L32" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15">
       <c r="A33" s="12">
         <v>17</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -2338,36 +3189,36 @@
         <v>14</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L33" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15">
       <c r="A34" s="12">
         <v>18</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>67</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
@@ -2375,36 +3226,36 @@
         <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J34" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L34" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15">
       <c r="A35" s="12">
         <v>19</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -2412,36 +3263,36 @@
         <v>14</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15">
       <c r="A36" s="12">
         <v>20</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
@@ -2449,34 +3300,34 @@
         <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="J36" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15">
       <c r="A37" s="12">
         <v>21</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
@@ -2484,36 +3335,36 @@
         <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L37" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15">
       <c r="A38" s="12">
         <v>22</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
@@ -2521,36 +3372,36 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L38" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15">
       <c r="A39" s="12">
         <v>23</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
@@ -2558,36 +3409,36 @@
         <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J39" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L39" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15">
       <c r="A40" s="12">
         <v>24</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -2595,36 +3446,36 @@
         <v>14</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J40" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L40" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15">
       <c r="A41" s="12">
         <v>25</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
@@ -2632,36 +3483,36 @@
         <v>14</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I41" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J41" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L41" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15">
       <c r="A42" s="12">
         <v>26</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
@@ -2669,36 +3520,36 @@
         <v>14</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L42" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15">
       <c r="A43" s="12">
         <v>27</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>81</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
@@ -2706,36 +3557,36 @@
         <v>14</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I43" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J43" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L43" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15">
       <c r="A44" s="12">
         <v>28</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
@@ -2743,36 +3594,36 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J44" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L44" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15">
       <c r="A45" s="12">
         <v>29</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -2780,36 +3631,36 @@
         <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J45" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L45" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15">
       <c r="A46" s="12">
         <v>30</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
@@ -2817,36 +3668,36 @@
         <v>14</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I46" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J46" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L46" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15">
       <c r="A47" s="12">
         <v>31</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
@@ -2854,36 +3705,36 @@
         <v>14</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I47" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J47" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L47" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15">
       <c r="A48" s="12">
         <v>32</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="40" t="s">
         <v>87</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -2891,36 +3742,36 @@
         <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I48" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L48" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15">
       <c r="A49" s="12">
         <v>33</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="40" t="s">
         <v>89</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>90</v>
       </c>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
@@ -2928,36 +3779,36 @@
         <v>14</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J49" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L49" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15">
       <c r="A50" s="12">
         <v>34</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
@@ -2965,184 +3816,184 @@
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I50" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L50" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15">
       <c r="A51" s="12">
         <v>35</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>94</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
       <c r="G51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J51" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L51" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15">
       <c r="A52" s="12">
         <v>36</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J52" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L52" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15">
       <c r="A53" s="12">
         <v>37</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>98</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="35"/>
       <c r="G53" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" s="12" t="s">
+      <c r="J53" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J53" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L53" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15">
       <c r="A54" s="12">
         <v>38</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>100</v>
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" s="12" t="s">
+      <c r="J54" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J54" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L54" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15">
       <c r="A55" s="12">
         <v>39</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>102</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
@@ -3150,36 +4001,36 @@
         <v>14</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I55" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J55" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L55" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15">
       <c r="A56" s="12">
         <v>40</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>104</v>
       </c>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
@@ -3187,36 +4038,36 @@
         <v>14</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I56" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J56" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15">
       <c r="A57" s="12">
         <v>41</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
@@ -3224,36 +4075,36 @@
         <v>14</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I57" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L57" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15">
       <c r="A58" s="12">
         <v>42</v>
       </c>
       <c r="B58" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="D58" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
@@ -3261,36 +4112,36 @@
         <v>14</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J58" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L58" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15">
       <c r="A59" s="12">
         <v>43</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="E59" s="44"/>
       <c r="F59" s="44"/>
@@ -3298,36 +4149,36 @@
         <v>14</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I59" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L59" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15">
       <c r="A60" s="12">
         <v>44</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="E60" s="44"/>
       <c r="F60" s="44"/>
@@ -3335,73 +4186,73 @@
         <v>14</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I60" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L60" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15">
       <c r="A61" s="12">
         <v>45</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I61" s="12" t="s">
+      <c r="J61" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J61" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L61" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15">
       <c r="A62" s="12">
         <v>46</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
@@ -3409,36 +4260,36 @@
         <v>14</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I62" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J62" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L62" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15">
       <c r="A63" s="12">
         <v>47</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -3446,36 +4297,36 @@
         <v>14</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J63" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L63" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15">
       <c r="A64" s="12">
         <v>48</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="41" t="s">
         <v>118</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>119</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="43"/>
@@ -3483,36 +4334,36 @@
         <v>14</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J64" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L64" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15">
       <c r="A65" s="12">
         <v>49</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>121</v>
       </c>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -3520,36 +4371,36 @@
         <v>14</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I65" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J65" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L65" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15">
       <c r="A66" s="12">
         <v>50</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -3557,36 +4408,36 @@
         <v>14</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I66" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J66" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K66" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L66" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15">
       <c r="A67" s="14">
         <v>51</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>123</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>124</v>
       </c>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -3594,35 +4445,35 @@
         <v>14</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I67" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="J67" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K67" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="L67" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15">
       <c r="A68" s="14">
         <v>52</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -3630,39 +4481,39 @@
         <v>14</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I68" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J68" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L68" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M68" s="18">
         <v>43008</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="14">
         <v>53</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -3670,39 +4521,39 @@
         <v>14</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I69" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J69" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L69" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M69" s="18">
         <v>43008</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="14">
         <v>54</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -3710,39 +4561,39 @@
         <v>14</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I70" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J70" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L70" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M70" s="18">
         <v>43008</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="14">
         <v>55</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -3750,39 +4601,39 @@
         <v>14</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I71" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J71" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L71" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M71" s="18">
         <v>43008</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="14">
         <v>56</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
@@ -3790,39 +4641,39 @@
         <v>14</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I72" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J72" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L72" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M72" s="18">
         <v>43008</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="14">
         <v>57</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -3830,39 +4681,39 @@
         <v>14</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I73" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K73" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J73" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L73" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M73" s="18">
         <v>43008</v>
       </c>
       <c r="N73" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="14">
         <v>58</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -3870,39 +4721,39 @@
         <v>14</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I74" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J74" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L74" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M74" s="18">
         <v>43008</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="14">
         <v>59</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -3910,39 +4761,39 @@
         <v>14</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I75" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J75" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L75" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M75" s="18">
         <v>43008</v>
       </c>
       <c r="N75" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="14">
         <v>60</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
@@ -3950,25 +4801,25 @@
         <v>14</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="13">
+        <v>43001</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="J76" s="13">
-        <v>43001</v>
-      </c>
-      <c r="K76" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="L76" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M76" s="18">
         <v>43008</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4880,7 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G76" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Alta, Media, Baja"</formula1>
     </dataValidation>
@@ -4117,4 +4968,515 @@
   <pageSetup orientation="portrait" r:id="rId60"/>
   <drawing r:id="rId61"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEED50-CEE4-469C-A96E-89D8FCAF0C9E}">
+  <dimension ref="A5:IX60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="10.44921875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="11.046875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="31.94921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="34.94921875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="11.34765625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="39.34765625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="20.796875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="32.09765625" style="45" customWidth="1"/>
+    <col min="12" max="13" width="19.44921875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" style="45" customWidth="1"/>
+    <col min="16" max="258" width="10.44921875" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:12">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="2:12" ht="30.3">
+      <c r="C7" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="2:12" ht="30.3">
+      <c r="C8" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.9" thickBot="1">
+      <c r="B12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="2:12" ht="111.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="17" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
+      <c r="B18" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.8" customHeight="1" thickBot="1">
+      <c r="B19" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
+      <c r="B22" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B23" s="69">
+        <v>1</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B24" s="69">
+        <v>2</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B25" s="69">
+        <v>3</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B26" s="69">
+        <v>4</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+    </row>
+    <row r="27" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B27" s="69">
+        <v>5</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+    </row>
+    <row r="28" spans="2:7" ht="19.8" customHeight="1" thickBot="1">
+      <c r="B28" s="74">
+        <v>6</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="29" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="30" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+    </row>
+    <row r="31" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
+      <c r="B31" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19.8" customHeight="1">
+      <c r="B32" s="69">
+        <v>1</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B33" s="69">
+        <v>2</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B34" s="69">
+        <v>3</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B35" s="69">
+        <v>4</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B36" s="69">
+        <v>5</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.8" customHeight="1" thickBot="1">
+      <c r="B37" s="74">
+        <v>6</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.8" customHeight="1" thickTop="1">
+      <c r="A38" s="78"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A41" s="78"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A42" s="78"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A43" s="78"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+    </row>
+    <row r="44" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A45" s="78"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+    </row>
+    <row r="46" spans="1:9" ht="19.8" customHeight="1">
+      <c r="A46" s="78"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+    </row>
+    <row r="47" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.8" customHeight="1">
+      <c r="B48" s="79"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+    </row>
+    <row r="49" spans="2:5" ht="19.8" customHeight="1">
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+    </row>
+    <row r="50" spans="2:5" ht="19.8" customHeight="1">
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+    </row>
+    <row r="51" spans="2:5" ht="19.8" customHeight="1">
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="79"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="79"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="79"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="79"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="81"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
+++ b/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP\PET\GitHub\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricardo\Pepe\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Unitarias" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="238">
   <si>
     <t>Historial de Versiones</t>
   </si>
@@ -514,90 +514,6 @@
   </si>
   <si>
     <t xml:space="preserve">muestra mensaje de confirmacion de eliminacion </t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\validacion.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\carta.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\eliminarplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\stockplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\actualizarplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\nuevoplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\validardatosplato.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\cerrarventana.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\logincliente.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\agregarcarrito.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\catalofo.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mostrarCarrito.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mascarrit.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\comprar.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\mensajecompra.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\registrarcliente.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\1.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\2.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\3.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\4.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\5.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\6.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\7.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\8.png</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\reprote.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\valida empleado.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\empleado.JPG</t>
-  </si>
-  <si>
-    <t>G:\pruebas dinamicas\cerrrarsesion.JPG</t>
   </si>
   <si>
     <t>CLIENTE</t>
@@ -945,15 +861,9 @@
     <t>Prerrequisitos</t>
   </si>
   <si>
-    <t>&lt;&lt;CA0XX&gt;&gt;</t>
-  </si>
-  <si>
     <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 2&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;CA0YY&gt;&gt;</t>
-  </si>
-  <si>
     <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 3&gt;&gt;</t>
   </si>
   <si>
@@ -997,6 +907,108 @@
   </si>
   <si>
     <t>Pepe Tiburón</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Validacion.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Carta.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\EliminarPlato.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\StockPlato.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\ActualizarPlato.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\NuevoPlato.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\ValidarDatosPlato.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\CerrarVentana.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\LoginCliente.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Catalogo.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\AgregarCarrito.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\MostrarCarrito.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\MasCarrito.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Comprar.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\MensajeCompra.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\RegistrarCliente.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\CerrarSesion.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\ValidaEmpleado.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Empleado.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\Reporte.JPG</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\8.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\7.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\6.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\5.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\4.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\3.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\2.png</t>
+  </si>
+  <si>
+    <t>pruebas_dinamicas\1.png</t>
+  </si>
+  <si>
+    <t>CA001</t>
+  </si>
+  <si>
+    <t>CA002</t>
+  </si>
+  <si>
+    <t>CA003</t>
+  </si>
+  <si>
+    <t>CA004</t>
+  </si>
+  <si>
+    <t>CA005</t>
+  </si>
+  <si>
+    <t>CA006</t>
   </si>
 </sst>
 </file>
@@ -1347,19 +1359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FFB3B3B3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB3B3B3"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFB3B3B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB3B3B3"/>
       </left>
@@ -1579,6 +1578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1591,7 +1601,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1624,7 +1634,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1657,23 +1666,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,13 +1730,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1701,65 +1763,10 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="8" xr:uid="{510351E2-DA61-49A4-A9FF-367C4A7BCBBD}"/>
@@ -1876,53 +1883,67 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>668250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99090</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1458000" cy="1010159"/>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64084</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 2">
+        <xdr:cNvPr id="3" name="Imagen 2" descr="http://rrapa.esy.es/assets/img/pp.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55548DA1-E312-495C-9D45-88F56936B29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D768B137-28F6-4D4E-A182-D34C109ABF2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum/>
-          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="668250" y="1089690"/>
-          <a:ext cx="1458000" cy="1010159"/>
+          <a:off x="742950" y="523875"/>
+          <a:ext cx="2019300" cy="1502359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2191,40 +2212,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="63.94921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="25.8984375" customWidth="1"/>
-    <col min="12" max="12" width="19.8984375" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="28.5" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2233,18 +2254,18 @@
     </row>
     <row r="2" spans="1:15" ht="15.6" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2253,10 +2274,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="11">
         <v>42999</v>
       </c>
@@ -2273,18 +2294,18 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2293,16 +2314,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2329,12 +2350,12 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2359,12 +2380,12 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2387,12 +2408,12 @@
       <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2415,12 +2436,12 @@
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2437,18 +2458,18 @@
       <c r="C11" s="13">
         <v>42999</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>205</v>
+      <c r="D11" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2463,10 +2484,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2481,10 +2502,10 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2507,28 +2528,28 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
@@ -2536,16 +2557,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2578,17 +2599,17 @@
       <c r="A17" s="12">
         <v>1</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>193</v>
+      <c r="B17" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +2626,7 @@
         <v>144</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -2615,17 +2636,17 @@
       <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>206</v>
+      <c r="B18" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2663,7 @@
         <v>144</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -2652,17 +2673,17 @@
       <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>191</v>
+      <c r="B19" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>144</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -2689,17 +2710,17 @@
       <c r="A20" s="12">
         <v>4</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>191</v>
+      <c r="B20" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2737,7 @@
         <v>144</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -2726,17 +2747,17 @@
       <c r="A21" s="12">
         <v>5</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>191</v>
+      <c r="B21" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2753,7 +2774,7 @@
         <v>144</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -2763,17 +2784,17 @@
       <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>191</v>
+      <c r="B22" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>144</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -2800,17 +2821,17 @@
       <c r="A23" s="12">
         <v>7</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>191</v>
+      <c r="B23" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2848,7 @@
         <v>144</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -2837,17 +2858,17 @@
       <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>191</v>
+      <c r="B24" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="12" t="s">
         <v>14</v>
       </c>
@@ -2864,7 +2885,7 @@
         <v>144</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2874,17 +2895,17 @@
       <c r="A25" s="12">
         <v>9</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>191</v>
+      <c r="B25" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="12" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2922,7 @@
         <v>144</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -2911,17 +2932,17 @@
       <c r="A26" s="12">
         <v>10</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>192</v>
+      <c r="B26" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="12" t="s">
         <v>14</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>144</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2948,17 +2969,17 @@
       <c r="A27" s="12">
         <v>11</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>203</v>
+      <c r="B27" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="12" t="s">
         <v>14</v>
       </c>
@@ -2975,7 +2996,7 @@
         <v>144</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="M27" s="13">
         <v>43001</v>
@@ -2989,17 +3010,17 @@
       <c r="A28" s="12">
         <v>12</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="35" t="s">
+      <c r="B28" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -3026,17 +3047,17 @@
       <c r="A29" s="12">
         <v>13</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>203</v>
+      <c r="B29" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="12" t="s">
         <v>14</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>144</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3063,17 +3084,17 @@
       <c r="A30" s="12">
         <v>14</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>203</v>
+      <c r="B30" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="12" t="s">
         <v>14</v>
       </c>
@@ -3090,7 +3111,7 @@
         <v>144</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -3100,17 +3121,17 @@
       <c r="A31" s="12">
         <v>15</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>203</v>
+      <c r="B31" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
@@ -3127,7 +3148,7 @@
         <v>144</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -3137,17 +3158,17 @@
       <c r="A32" s="12">
         <v>16</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>203</v>
+      <c r="B32" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3185,7 @@
         <v>144</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -3174,17 +3195,17 @@
       <c r="A33" s="12">
         <v>17</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>203</v>
+      <c r="B33" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="12" t="s">
         <v>14</v>
       </c>
@@ -3201,7 +3222,7 @@
         <v>144</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -3211,17 +3232,17 @@
       <c r="A34" s="12">
         <v>18</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>203</v>
+      <c r="B34" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="12" t="s">
         <v>14</v>
       </c>
@@ -3238,7 +3259,7 @@
         <v>144</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -3248,17 +3269,17 @@
       <c r="A35" s="12">
         <v>19</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>203</v>
+      <c r="B35" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="12" t="s">
         <v>14</v>
       </c>
@@ -3275,7 +3296,7 @@
         <v>144</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3285,17 +3306,17 @@
       <c r="A36" s="12">
         <v>20</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>203</v>
+      <c r="B36" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="12" t="s">
         <v>14</v>
       </c>
@@ -3320,17 +3341,17 @@
       <c r="A37" s="12">
         <v>21</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>202</v>
+      <c r="B37" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="12" t="s">
         <v>14</v>
       </c>
@@ -3347,7 +3368,7 @@
         <v>144</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3357,17 +3378,17 @@
       <c r="A38" s="12">
         <v>22</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>194</v>
+      <c r="B38" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="12" t="s">
         <v>14</v>
       </c>
@@ -3384,7 +3405,7 @@
         <v>144</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3394,17 +3415,17 @@
       <c r="A39" s="12">
         <v>23</v>
       </c>
-      <c r="B39" s="32" t="s">
-        <v>195</v>
+      <c r="B39" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="12" t="s">
         <v>14</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>144</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3431,17 +3452,17 @@
       <c r="A40" s="12">
         <v>24</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>196</v>
+      <c r="B40" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="12" t="s">
         <v>14</v>
       </c>
@@ -3458,7 +3479,7 @@
         <v>144</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3468,17 +3489,17 @@
       <c r="A41" s="12">
         <v>25</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>197</v>
+      <c r="B41" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="12" t="s">
         <v>14</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>144</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3505,17 +3526,17 @@
       <c r="A42" s="12">
         <v>26</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>198</v>
+      <c r="B42" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="12" t="s">
         <v>14</v>
       </c>
@@ -3531,8 +3552,8 @@
       <c r="K42" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L42" s="22" t="s">
-        <v>189</v>
+      <c r="L42" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -3542,17 +3563,17 @@
       <c r="A43" s="12">
         <v>27</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>199</v>
+      <c r="B43" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="12" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +3590,7 @@
         <v>144</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3579,17 +3600,17 @@
       <c r="A44" s="12">
         <v>28</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>199</v>
+      <c r="B44" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="12" t="s">
         <v>14</v>
       </c>
@@ -3606,7 +3627,7 @@
         <v>144</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3616,17 +3637,17 @@
       <c r="A45" s="12">
         <v>29</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>199</v>
+      <c r="B45" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="12" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3664,7 @@
         <v>144</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3653,17 +3674,17 @@
       <c r="A46" s="12">
         <v>30</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>199</v>
+      <c r="B46" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="12" t="s">
         <v>14</v>
       </c>
@@ -3680,7 +3701,7 @@
         <v>144</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3690,17 +3711,17 @@
       <c r="A47" s="12">
         <v>31</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>199</v>
+      <c r="B47" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="12" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>144</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3727,17 +3748,17 @@
       <c r="A48" s="12">
         <v>32</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>200</v>
+      <c r="B48" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="12" t="s">
         <v>14</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>144</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3764,17 +3785,17 @@
       <c r="A49" s="12">
         <v>33</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>200</v>
+      <c r="B49" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="12" t="s">
         <v>14</v>
       </c>
@@ -3791,7 +3812,7 @@
         <v>144</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
@@ -3801,17 +3822,17 @@
       <c r="A50" s="12">
         <v>34</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>200</v>
+      <c r="B50" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="12" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3849,7 @@
         <v>144</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
@@ -3838,17 +3859,17 @@
       <c r="A51" s="12">
         <v>35</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>200</v>
+      <c r="B51" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="12" t="s">
         <v>142</v>
       </c>
@@ -3865,7 +3886,7 @@
         <v>144</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
@@ -3875,17 +3896,17 @@
       <c r="A52" s="12">
         <v>36</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>200</v>
+      <c r="B52" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="12" t="s">
         <v>142</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>144</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -3912,17 +3933,17 @@
       <c r="A53" s="12">
         <v>37</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>200</v>
+      <c r="B53" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="12" t="s">
         <v>142</v>
       </c>
@@ -3939,7 +3960,7 @@
         <v>144</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -3949,17 +3970,17 @@
       <c r="A54" s="12">
         <v>38</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>200</v>
+      <c r="B54" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="12" t="s">
         <v>142</v>
       </c>
@@ -3976,7 +3997,7 @@
         <v>144</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
@@ -3986,17 +4007,17 @@
       <c r="A55" s="12">
         <v>39</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>200</v>
+      <c r="B55" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="12" t="s">
         <v>14</v>
       </c>
@@ -4013,7 +4034,7 @@
         <v>144</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -4023,17 +4044,17 @@
       <c r="A56" s="12">
         <v>40</v>
       </c>
-      <c r="B56" s="32" t="s">
-        <v>200</v>
+      <c r="B56" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="12" t="s">
         <v>14</v>
       </c>
@@ -4050,7 +4071,7 @@
         <v>144</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -4060,17 +4081,17 @@
       <c r="A57" s="12">
         <v>41</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>200</v>
+      <c r="B57" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="12" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +4108,7 @@
         <v>144</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -4097,17 +4118,17 @@
       <c r="A58" s="12">
         <v>42</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="35" t="s">
+      <c r="B58" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="12" t="s">
         <v>14</v>
       </c>
@@ -4124,7 +4145,7 @@
         <v>144</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -4134,17 +4155,17 @@
       <c r="A59" s="12">
         <v>43</v>
       </c>
-      <c r="B59" s="32" t="s">
-        <v>200</v>
+      <c r="B59" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="12" t="s">
         <v>14</v>
       </c>
@@ -4161,7 +4182,7 @@
         <v>144</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -4171,17 +4192,17 @@
       <c r="A60" s="12">
         <v>44</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>200</v>
+      <c r="B60" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="12" t="s">
         <v>14</v>
       </c>
@@ -4198,7 +4219,7 @@
         <v>144</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -4208,17 +4229,17 @@
       <c r="A61" s="12">
         <v>45</v>
       </c>
-      <c r="B61" s="32" t="s">
-        <v>200</v>
+      <c r="B61" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="12" t="s">
         <v>142</v>
       </c>
@@ -4235,7 +4256,7 @@
         <v>144</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -4245,17 +4266,17 @@
       <c r="A62" s="12">
         <v>46</v>
       </c>
-      <c r="B62" s="32" t="s">
-        <v>200</v>
+      <c r="B62" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="12" t="s">
         <v>14</v>
       </c>
@@ -4272,7 +4293,7 @@
         <v>144</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
@@ -4282,17 +4303,17 @@
       <c r="A63" s="12">
         <v>47</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>200</v>
+      <c r="B63" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="12" t="s">
         <v>14</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>144</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -4319,17 +4340,17 @@
       <c r="A64" s="12">
         <v>48</v>
       </c>
-      <c r="B64" s="32" t="s">
-        <v>200</v>
+      <c r="B64" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="12" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4367,7 @@
         <v>144</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -4356,17 +4377,17 @@
       <c r="A65" s="12">
         <v>49</v>
       </c>
-      <c r="B65" s="32" t="s">
-        <v>200</v>
+      <c r="B65" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="12" t="s">
         <v>14</v>
       </c>
@@ -4383,7 +4404,7 @@
         <v>144</v>
       </c>
       <c r="L65" s="21" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -4393,17 +4414,17 @@
       <c r="A66" s="12">
         <v>50</v>
       </c>
-      <c r="B66" s="32" t="s">
-        <v>200</v>
+      <c r="B66" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="12" t="s">
         <v>14</v>
       </c>
@@ -4420,7 +4441,7 @@
         <v>144</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -4430,17 +4451,17 @@
       <c r="A67" s="14">
         <v>51</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>200</v>
+      <c r="B67" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="12" t="s">
         <v>14</v>
       </c>
@@ -4457,7 +4478,7 @@
         <v>144</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
@@ -4466,8 +4487,8 @@
       <c r="A68" s="14">
         <v>52</v>
       </c>
-      <c r="B68" s="33" t="s">
-        <v>204</v>
+      <c r="B68" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>124</v>
@@ -4493,7 +4514,7 @@
         <v>147</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M68" s="18">
         <v>43008</v>
@@ -4506,8 +4527,8 @@
       <c r="A69" s="14">
         <v>53</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>204</v>
+      <c r="B69" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>126</v>
@@ -4533,7 +4554,7 @@
         <v>147</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M69" s="18">
         <v>43008</v>
@@ -4546,8 +4567,8 @@
       <c r="A70" s="14">
         <v>54</v>
       </c>
-      <c r="B70" s="33" t="s">
-        <v>204</v>
+      <c r="B70" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>128</v>
@@ -4573,7 +4594,7 @@
         <v>147</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="M70" s="18">
         <v>43008</v>
@@ -4586,8 +4607,8 @@
       <c r="A71" s="14">
         <v>55</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>204</v>
+      <c r="B71" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>130</v>
@@ -4613,7 +4634,7 @@
         <v>147</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="M71" s="18">
         <v>43008</v>
@@ -4626,8 +4647,8 @@
       <c r="A72" s="14">
         <v>56</v>
       </c>
-      <c r="B72" s="33" t="s">
-        <v>204</v>
+      <c r="B72" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>132</v>
@@ -4653,7 +4674,7 @@
         <v>147</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="M72" s="18">
         <v>43008</v>
@@ -4666,8 +4687,8 @@
       <c r="A73" s="14">
         <v>57</v>
       </c>
-      <c r="B73" s="33" t="s">
-        <v>204</v>
+      <c r="B73" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>134</v>
@@ -4693,7 +4714,7 @@
         <v>147</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="M73" s="18">
         <v>43008</v>
@@ -4706,8 +4727,8 @@
       <c r="A74" s="14">
         <v>58</v>
       </c>
-      <c r="B74" s="33" t="s">
-        <v>204</v>
+      <c r="B74" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>136</v>
@@ -4733,7 +4754,7 @@
         <v>147</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="M74" s="18">
         <v>43008</v>
@@ -4746,8 +4767,8 @@
       <c r="A75" s="14">
         <v>59</v>
       </c>
-      <c r="B75" s="33" t="s">
-        <v>190</v>
+      <c r="B75" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>138</v>
@@ -4773,7 +4794,7 @@
         <v>147</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="M75" s="18">
         <v>43008</v>
@@ -4786,8 +4807,8 @@
       <c r="A76" s="14">
         <v>60</v>
       </c>
-      <c r="B76" s="33" t="s">
-        <v>190</v>
+      <c r="B76" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>140</v>
@@ -4813,7 +4834,7 @@
         <v>147</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="M76" s="18">
         <v>43008</v>
@@ -4824,29 +4845,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
@@ -4863,22 +4877,29 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G76" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4905,569 +4926,582 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L76" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L75" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L74" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L73" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L72" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L71" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L70" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L69" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L68" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L67" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L65" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L66" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L64" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L57" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L56" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L53" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L52" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L45" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L44" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L43" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L59" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="L61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L35" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L42" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L76" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L75" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L74" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L73" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L72" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L71" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L70" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L69" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L68" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L63" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L18" r:id="rId30" xr:uid="{B6D426E9-FAA3-4110-A6D9-8CA1852D3ED6}"/>
+    <hyperlink ref="L27" r:id="rId31" xr:uid="{813B656C-E79F-4B12-B8D3-9DA3462D2EB8}"/>
+    <hyperlink ref="L35" r:id="rId32" xr:uid="{3DF5769A-1F2A-4CBE-988D-FAC53C996491}"/>
+    <hyperlink ref="L38:L42" r:id="rId33" display="pruebas_dinamicas\CerrarSesion.JPG" xr:uid="{7C69F1D6-270D-4E76-B05D-4266FCAFD0B3}"/>
+    <hyperlink ref="L44:L58" r:id="rId34" display="pruebas_dinamicas\ValidaEmpleado.JPG" xr:uid="{7154F841-25F5-4F9F-B5C7-83DF01F5448F}"/>
+    <hyperlink ref="L60:L62" r:id="rId35" display="pruebas_dinamicas\Empleado.JPG" xr:uid="{E16947BC-CD25-43E1-AD7B-629DC1BBFBB5}"/>
+    <hyperlink ref="L64:L67" r:id="rId36" display="pruebas_dinamicas\Reporte.JPG" xr:uid="{C1FACBDA-DA4F-49D3-AAEE-412A07225680}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
-  <drawing r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEED50-CEE4-469C-A96E-89D8FCAF0C9E}">
-  <dimension ref="A5:IX60"/>
+  <dimension ref="A5:IX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.44921875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="11.046875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="31.94921875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.69921875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="34.94921875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="11.34765625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="39.34765625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="20.796875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="32.09765625" style="45" customWidth="1"/>
-    <col min="12" max="13" width="19.44921875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="19.19921875" style="45" customWidth="1"/>
-    <col min="15" max="15" width="13.09765625" style="45" customWidth="1"/>
-    <col min="16" max="258" width="10.44921875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34" customWidth="1"/>
+    <col min="3" max="3" width="32" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="34" customWidth="1"/>
+    <col min="5" max="5" width="35" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="34" customWidth="1"/>
+    <col min="8" max="10" width="20.75" style="34" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="34" customWidth="1"/>
+    <col min="12" max="13" width="19.5" style="34" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="34" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="34" customWidth="1"/>
+    <col min="16" max="258" width="10.5" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="2:12" ht="30.3">
-      <c r="C7" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="2:12" ht="30.3">
-      <c r="C8" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.9" thickBot="1">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+    </row>
+    <row r="7" spans="2:12" ht="30">
+      <c r="B7"/>
+      <c r="C7" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+    </row>
+    <row r="8" spans="2:12" ht="30">
+      <c r="C8" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" thickBot="1">
       <c r="B12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="2:12" ht="111.9" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+    <row r="13" spans="2:12" ht="111.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="2:12" ht="19.8" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="17" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
-      <c r="B18" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54" t="s">
-        <v>217</v>
+    <row r="15" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="17" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="79"/>
+    </row>
+    <row r="18" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.8" customHeight="1" thickBot="1">
-      <c r="B19" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-    </row>
-    <row r="20" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
-      <c r="B22" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B23" s="69">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="37"/>
+      <c r="E19"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="37"/>
+      <c r="E20"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="37"/>
+      <c r="E21"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="37"/>
+      <c r="E22"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B26" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B27" s="48">
         <v>1</v>
       </c>
-      <c r="C23" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B24" s="69">
+      <c r="C27" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="48">
         <v>2</v>
       </c>
-      <c r="C24" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B25" s="69">
+      <c r="C28" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="48">
         <v>3</v>
       </c>
-      <c r="C25" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B26" s="69">
+      <c r="C29" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="48">
         <v>4</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-    </row>
-    <row r="27" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B27" s="69">
+      <c r="C30" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="48">
         <v>5</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="2:7" ht="19.8" customHeight="1" thickBot="1">
-      <c r="B28" s="74">
+      <c r="C31" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="2:7" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B32" s="53">
         <v>6</v>
       </c>
-      <c r="C28" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-    </row>
-    <row r="29" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="30" spans="2:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B30" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="2:7" ht="19.8" customHeight="1" thickTop="1">
-      <c r="B31" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="19.8" customHeight="1">
-      <c r="B32" s="69">
+      <c r="C32" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="34" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B35" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B36" s="48">
         <v>1</v>
       </c>
-      <c r="C32" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B33" s="69">
+      <c r="C36" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B37" s="48">
         <v>2</v>
       </c>
-      <c r="C33" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B34" s="69">
+      <c r="C37" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B38" s="48">
         <v>3</v>
       </c>
-      <c r="C34" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B35" s="69">
+      <c r="C38" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B39" s="48">
         <v>4</v>
       </c>
-      <c r="C35" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="72"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B36" s="69">
+      <c r="C39" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B40" s="48">
         <v>5</v>
       </c>
-      <c r="C36" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.8" customHeight="1" thickBot="1">
-      <c r="B37" s="74">
+      <c r="C40" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B41" s="53">
         <v>6</v>
       </c>
-      <c r="C37" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.8" customHeight="1" thickTop="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A41" s="78"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-    </row>
-    <row r="43" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-    </row>
-    <row r="44" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A45" s="78"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-    </row>
-    <row r="46" spans="1:9" ht="19.8" customHeight="1">
-      <c r="A46" s="78"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-    </row>
-    <row r="47" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.8" customHeight="1">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-    </row>
-    <row r="49" spans="2:5" ht="19.8" customHeight="1">
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-    </row>
-    <row r="50" spans="2:5" ht="19.8" customHeight="1">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-    </row>
-    <row r="51" spans="2:5" ht="19.8" customHeight="1">
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="81"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="80"/>
+      <c r="C41" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+    </row>
+    <row r="44" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+    </row>
+    <row r="46" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+    </row>
+    <row r="47" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+    </row>
+    <row r="49" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="A49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+    </row>
+    <row r="50" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+    </row>
+    <row r="51" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+    </row>
+    <row r="52" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+    </row>
+    <row r="53" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+    </row>
+    <row r="54" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+    </row>
+    <row r="55" spans="1:5" ht="19.899999999999999" customHeight="1">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="60"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
+  <mergeCells count="17">
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:E7"/>
@@ -5475,6 +5509,15 @@
     <mergeCell ref="B13:G15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
+++ b/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas Unitarias" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="251">
   <si>
     <t>Historial de Versiones</t>
   </si>
@@ -861,15 +861,6 @@
     <t>Prerrequisitos</t>
   </si>
   <si>
-    <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 2&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Componente 1&gt;&gt;-&lt;&lt;Componente 3&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;CAXX&gt;&gt;</t>
-  </si>
-  <si>
     <t>Paso</t>
   </si>
   <si>
@@ -1009,6 +1000,54 @@
   </si>
   <si>
     <t>CA006</t>
+  </si>
+  <si>
+    <t>Se hara el registro de un cliente nuevo y el envio de un pedido nuevo para la recepcion del pedido</t>
+  </si>
+  <si>
+    <t>Ingresar a la aplicación movil</t>
+  </si>
+  <si>
+    <t>Cliente - Administrador</t>
+  </si>
+  <si>
+    <t>Administrador - Cocina</t>
+  </si>
+  <si>
+    <t>Cocina - Caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 1. </t>
+  </si>
+  <si>
+    <t>Paso 2</t>
+  </si>
+  <si>
+    <t>Paso 3</t>
+  </si>
+  <si>
+    <t>Paso 4</t>
+  </si>
+  <si>
+    <t>Paso 5</t>
+  </si>
+  <si>
+    <t>Paso 6</t>
+  </si>
+  <si>
+    <t>Se hara el envio de pedidos aprobados hacia la cocina</t>
+  </si>
+  <si>
+    <t>Se hara el envio de pedidos terminados para su emisión de boleta</t>
+  </si>
+  <si>
+    <t>Caja - Cocina</t>
+  </si>
+  <si>
+    <t>Se realizara el rechazo de un pedido terminado por falta de platos del pedido</t>
+  </si>
+  <si>
+    <t>Se realizara el reenvio del pedido rechazado hacia caja para su facturación</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1147,7 @@
       <name val="Arial2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,8 +1202,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1349,19 +1394,6 @@
       <left style="thin">
         <color rgb="FFB3B3B3"/>
       </left>
-      <right style="double">
-        <color rgb="FFB3B3B3"/>
-      </right>
-      <top style="double">
-        <color rgb="FFB3B3B3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB3B3B3"/>
-      </left>
       <right style="thin">
         <color rgb="FFB3B3B3"/>
       </right>
@@ -1582,7 +1614,118 @@
       <left style="thin">
         <color rgb="FFB3B3B3"/>
       </left>
+      <right/>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
         <color rgb="FFB3B3B3"/>
       </right>
       <top/>
@@ -1601,7 +1744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1628,11 +1771,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1673,43 +1811,37 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,6 +1849,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1730,27 +1877,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1766,7 +1893,26 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="8" xr:uid="{510351E2-DA61-49A4-A9FF-367C4A7BCBBD}"/>
@@ -2212,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2236,16 +2382,16 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2254,18 +2400,18 @@
     </row>
     <row r="2" spans="1:15" ht="15.6" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2274,10 +2420,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11">
         <v>42999</v>
       </c>
@@ -2294,18 +2440,18 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2314,16 +2460,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2350,12 +2496,12 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2380,12 +2526,12 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2408,12 +2554,12 @@
       <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2436,12 +2582,12 @@
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2458,18 +2604,18 @@
       <c r="C11" s="13">
         <v>42999</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>177</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2484,10 +2630,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2502,10 +2648,10 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2528,28 +2674,28 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="68"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="69" t="s">
+      <c r="M15" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="69"/>
+      <c r="N15" s="58"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
@@ -2562,11 +2708,11 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2599,17 +2745,17 @@
       <c r="A17" s="12">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2772,7 @@
         <v>144</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -2636,17 +2782,17 @@
       <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>178</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2663,7 +2809,7 @@
         <v>144</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -2673,17 +2819,17 @@
       <c r="A19" s="12">
         <v>3</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +2846,7 @@
         <v>144</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -2710,17 +2856,17 @@
       <c r="A20" s="12">
         <v>4</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
@@ -2737,7 +2883,7 @@
         <v>144</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -2747,17 +2893,17 @@
       <c r="A21" s="12">
         <v>5</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2920,7 @@
         <v>144</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -2784,17 +2930,17 @@
       <c r="A22" s="12">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
@@ -2811,7 +2957,7 @@
         <v>144</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -2821,17 +2967,17 @@
       <c r="A23" s="12">
         <v>7</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +2994,7 @@
         <v>144</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -2858,17 +3004,17 @@
       <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="12" t="s">
         <v>14</v>
       </c>
@@ -2885,7 +3031,7 @@
         <v>144</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2895,17 +3041,17 @@
       <c r="A25" s="12">
         <v>9</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="28" t="s">
         <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="12" t="s">
         <v>14</v>
       </c>
@@ -2922,7 +3068,7 @@
         <v>144</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -2932,17 +3078,17 @@
       <c r="A26" s="12">
         <v>10</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="28" t="s">
         <v>164</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="12" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +3105,7 @@
         <v>144</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2969,17 +3115,17 @@
       <c r="A27" s="12">
         <v>11</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="12" t="s">
         <v>14</v>
       </c>
@@ -2996,9 +3142,9 @@
         <v>144</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" s="13">
+        <v>209</v>
+      </c>
+      <c r="M27" s="12">
         <v>43001</v>
       </c>
       <c r="N27" s="12" t="s">
@@ -3010,17 +3156,17 @@
       <c r="A28" s="12">
         <v>12</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="12" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3183,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -3047,17 +3193,17 @@
       <c r="A29" s="12">
         <v>13</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="12" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3220,7 @@
         <v>144</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3084,17 +3230,17 @@
       <c r="A30" s="12">
         <v>14</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="12" t="s">
         <v>14</v>
       </c>
@@ -3111,7 +3257,7 @@
         <v>144</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -3121,17 +3267,17 @@
       <c r="A31" s="12">
         <v>15</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3294,7 @@
         <v>144</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -3158,17 +3304,17 @@
       <c r="A32" s="12">
         <v>16</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -3185,7 +3331,7 @@
         <v>144</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -3195,17 +3341,17 @@
       <c r="A33" s="12">
         <v>17</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="12" t="s">
         <v>14</v>
       </c>
@@ -3222,7 +3368,7 @@
         <v>144</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -3232,17 +3378,17 @@
       <c r="A34" s="12">
         <v>18</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="12" t="s">
         <v>14</v>
       </c>
@@ -3259,7 +3405,7 @@
         <v>144</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -3269,17 +3415,17 @@
       <c r="A35" s="12">
         <v>19</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="12" t="s">
         <v>14</v>
       </c>
@@ -3296,7 +3442,7 @@
         <v>144</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3306,17 +3452,17 @@
       <c r="A36" s="12">
         <v>20</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="12" t="s">
         <v>14</v>
       </c>
@@ -3341,17 +3487,17 @@
       <c r="A37" s="12">
         <v>21</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="28" t="s">
         <v>174</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="12" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3514,7 @@
         <v>144</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3378,17 +3524,17 @@
       <c r="A38" s="12">
         <v>22</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="28" t="s">
         <v>166</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="12" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +3551,7 @@
         <v>144</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3415,17 +3561,17 @@
       <c r="A39" s="12">
         <v>23</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="28" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="12" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3588,7 @@
         <v>144</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3452,17 +3598,17 @@
       <c r="A40" s="12">
         <v>24</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="28" t="s">
         <v>168</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="12" t="s">
         <v>14</v>
       </c>
@@ -3479,7 +3625,7 @@
         <v>144</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3489,17 +3635,17 @@
       <c r="A41" s="12">
         <v>25</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="28" t="s">
         <v>169</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="12" t="s">
         <v>14</v>
       </c>
@@ -3516,7 +3662,7 @@
         <v>144</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3526,17 +3672,17 @@
       <c r="A42" s="12">
         <v>26</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="28" t="s">
         <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="12" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3699,7 @@
         <v>144</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -3563,17 +3709,17 @@
       <c r="A43" s="12">
         <v>27</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="12" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3736,7 @@
         <v>144</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3600,17 +3746,17 @@
       <c r="A44" s="12">
         <v>28</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="12" t="s">
         <v>14</v>
       </c>
@@ -3627,7 +3773,7 @@
         <v>144</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3637,17 +3783,17 @@
       <c r="A45" s="12">
         <v>29</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="12" t="s">
         <v>14</v>
       </c>
@@ -3664,7 +3810,7 @@
         <v>144</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3674,17 +3820,17 @@
       <c r="A46" s="12">
         <v>30</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="12" t="s">
         <v>14</v>
       </c>
@@ -3701,7 +3847,7 @@
         <v>144</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3711,17 +3857,17 @@
       <c r="A47" s="12">
         <v>31</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="12" t="s">
         <v>14</v>
       </c>
@@ -3738,7 +3884,7 @@
         <v>144</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3748,17 +3894,17 @@
       <c r="A48" s="12">
         <v>32</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="12" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3921,7 @@
         <v>144</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3785,17 +3931,17 @@
       <c r="A49" s="12">
         <v>33</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="12" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +3958,7 @@
         <v>144</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
@@ -3822,17 +3968,17 @@
       <c r="A50" s="12">
         <v>34</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="12" t="s">
         <v>14</v>
       </c>
@@ -3849,7 +3995,7 @@
         <v>144</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
@@ -3859,17 +4005,17 @@
       <c r="A51" s="12">
         <v>35</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="12" t="s">
         <v>142</v>
       </c>
@@ -3886,7 +4032,7 @@
         <v>144</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
@@ -3896,17 +4042,17 @@
       <c r="A52" s="12">
         <v>36</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="12" t="s">
         <v>142</v>
       </c>
@@ -3923,7 +4069,7 @@
         <v>144</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -3933,17 +4079,17 @@
       <c r="A53" s="12">
         <v>37</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="61" t="s">
+      <c r="D53" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="12" t="s">
         <v>142</v>
       </c>
@@ -3960,7 +4106,7 @@
         <v>144</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -3970,17 +4116,17 @@
       <c r="A54" s="12">
         <v>38</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="12" t="s">
         <v>142</v>
       </c>
@@ -3997,7 +4143,7 @@
         <v>144</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
@@ -4007,17 +4153,17 @@
       <c r="A55" s="12">
         <v>39</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="61" t="s">
+      <c r="D55" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="12" t="s">
         <v>14</v>
       </c>
@@ -4034,7 +4180,7 @@
         <v>144</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -4044,17 +4190,17 @@
       <c r="A56" s="12">
         <v>40</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="12" t="s">
         <v>14</v>
       </c>
@@ -4071,7 +4217,7 @@
         <v>144</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -4081,17 +4227,17 @@
       <c r="A57" s="12">
         <v>41</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
       <c r="G57" s="12" t="s">
         <v>14</v>
       </c>
@@ -4108,7 +4254,7 @@
         <v>144</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -4118,17 +4264,17 @@
       <c r="A58" s="12">
         <v>42</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
       <c r="G58" s="12" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4291,7 @@
         <v>144</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -4155,17 +4301,17 @@
       <c r="A59" s="12">
         <v>43</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
       <c r="G59" s="12" t="s">
         <v>14</v>
       </c>
@@ -4182,7 +4328,7 @@
         <v>144</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -4192,17 +4338,17 @@
       <c r="A60" s="12">
         <v>44</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
       <c r="G60" s="12" t="s">
         <v>14</v>
       </c>
@@ -4219,7 +4365,7 @@
         <v>144</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -4229,17 +4375,17 @@
       <c r="A61" s="12">
         <v>45</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="12" t="s">
         <v>142</v>
       </c>
@@ -4256,27 +4402,27 @@
         <v>144</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
-      <c r="O61" s="2"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="12">
         <v>46</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="61" t="s">
+      <c r="D62" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
       <c r="G62" s="12" t="s">
         <v>14</v>
       </c>
@@ -4293,27 +4439,27 @@
         <v>144</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
-      <c r="O62" s="2"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="12">
         <v>47</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
       <c r="G63" s="12" t="s">
         <v>14</v>
       </c>
@@ -4329,28 +4475,28 @@
       <c r="K63" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L63" s="21" t="s">
-        <v>223</v>
+      <c r="L63" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
-      <c r="O63" s="2"/>
+      <c r="O63" s="12"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="12">
         <v>48</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D64" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="12" t="s">
         <v>14</v>
       </c>
@@ -4366,28 +4512,28 @@
       <c r="K64" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L64" s="21" t="s">
-        <v>223</v>
+      <c r="L64" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
-      <c r="O64" s="2"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="12">
         <v>49</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
       <c r="G65" s="12" t="s">
         <v>14</v>
       </c>
@@ -4403,28 +4549,28 @@
       <c r="K65" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L65" s="21" t="s">
-        <v>223</v>
+      <c r="L65" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
-      <c r="O65" s="2"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="12">
         <v>50</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="61" t="s">
+      <c r="D66" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
       <c r="G66" s="12" t="s">
         <v>14</v>
       </c>
@@ -4440,8 +4586,8 @@
       <c r="K66" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L66" s="21" t="s">
-        <v>223</v>
+      <c r="L66" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -4451,17 +4597,17 @@
       <c r="A67" s="14">
         <v>51</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="12" t="s">
         <v>14</v>
       </c>
@@ -4477,17 +4623,18 @@
       <c r="K67" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L67" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
+      <c r="L67" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="14">
         <v>52</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C68" s="14" t="s">
@@ -4513,21 +4660,22 @@
       <c r="K68" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L68" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M68" s="18">
+      <c r="L68" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="M68" s="12">
         <v>43008</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="12" t="s">
         <v>153</v>
       </c>
+      <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="14">
         <v>53</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -4553,21 +4701,22 @@
       <c r="K69" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L69" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M69" s="18">
+      <c r="L69" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="M69" s="12">
         <v>43008</v>
       </c>
-      <c r="N69" s="17" t="s">
+      <c r="N69" s="12" t="s">
         <v>154</v>
       </c>
+      <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="14">
         <v>54</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -4593,21 +4742,22 @@
       <c r="K70" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L70" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="M70" s="18">
+      <c r="L70" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M70" s="12">
         <v>43008</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="12" t="s">
         <v>155</v>
       </c>
+      <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="14">
         <v>55</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -4633,21 +4783,22 @@
       <c r="K71" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L71" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="M71" s="18">
+      <c r="L71" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71" s="12">
         <v>43008</v>
       </c>
-      <c r="N71" s="19" t="s">
+      <c r="N71" s="12" t="s">
         <v>156</v>
       </c>
+      <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="14">
         <v>56</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -4673,21 +4824,22 @@
       <c r="K72" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L72" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="M72" s="18">
+      <c r="L72" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M72" s="12">
         <v>43008</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="N72" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="14">
         <v>57</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -4713,21 +4865,22 @@
       <c r="K73" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L73" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="M73" s="18">
+      <c r="L73" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="M73" s="12">
         <v>43008</v>
       </c>
-      <c r="N73" s="15" t="s">
+      <c r="N73" s="12" t="s">
         <v>158</v>
       </c>
+      <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="14">
         <v>58</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -4753,21 +4906,22 @@
       <c r="K74" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L74" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="M74" s="18">
+      <c r="L74" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M74" s="12">
         <v>43008</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N74" s="12" t="s">
         <v>159</v>
       </c>
+      <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="14">
         <v>59</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C75" s="14" t="s">
@@ -4793,21 +4947,22 @@
       <c r="K75" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L75" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="M75" s="18">
+      <c r="L75" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="M75" s="12">
         <v>43008</v>
       </c>
-      <c r="N75" s="20" t="s">
+      <c r="N75" s="12" t="s">
         <v>160</v>
       </c>
+      <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="14">
         <v>60</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="29" t="s">
         <v>162</v>
       </c>
       <c r="C76" s="16" t="s">
@@ -4833,18 +4988,58 @@
       <c r="K76" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L76" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="M76" s="18">
+      <c r="L76" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M76" s="12">
         <v>43008</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="12" t="s">
         <v>161</v>
       </c>
+      <c r="O76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
@@ -4861,45 +5056,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G76" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4972,535 +5128,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEED50-CEE4-469C-A96E-89D8FCAF0C9E}">
   <dimension ref="A5:IX64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="11" style="34" customWidth="1"/>
-    <col min="3" max="3" width="32" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="35" style="34" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="34" customWidth="1"/>
-    <col min="8" max="10" width="20.75" style="34" customWidth="1"/>
-    <col min="11" max="11" width="32.125" style="34" customWidth="1"/>
-    <col min="12" max="13" width="19.5" style="34" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="34" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="34" customWidth="1"/>
-    <col min="16" max="258" width="10.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" customWidth="1"/>
+    <col min="3" max="3" width="32" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35" style="31" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="31" customWidth="1"/>
+    <col min="8" max="10" width="20.75" style="31" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="31" customWidth="1"/>
+    <col min="12" max="13" width="19.5" style="31" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="31" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="31" customWidth="1"/>
+    <col min="16" max="258" width="10.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="2:12" ht="30">
       <c r="B7"/>
-      <c r="C7" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="C7" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8" spans="2:12" ht="30">
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickBot="1">
       <c r="B12"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="2:12" ht="111.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="17" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="73"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="37" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="74"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+    </row>
+    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B26" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="37"/>
-      <c r="E19"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-    </row>
-    <row r="20" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="71" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="37"/>
-      <c r="E20"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="37"/>
-      <c r="E21"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="37"/>
-      <c r="E22"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="38" t="s">
+      <c r="C26" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="74" t="s">
+      <c r="D26" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B26" s="45" t="s">
+      <c r="E26" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="F26" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="G26" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="27" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="48">
+      <c r="B27" s="43">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="48">
+      <c r="B28" s="43">
         <v>2</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="48">
+      <c r="B29" s="43">
         <v>3</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="48">
+      <c r="B30" s="43">
         <v>4</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
+      <c r="C30" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="48">
+      <c r="B31" s="43">
         <v>5</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
+      <c r="C31" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="2:7" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B32" s="53">
+      <c r="B32" s="47">
         <v>6</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="C32" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="34" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="F35" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="G35" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="46" t="s">
+    </row>
+    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B36" s="43">
+        <v>1</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B37" s="43">
+        <v>2</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="45"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B38" s="43">
+        <v>3</v>
+      </c>
+      <c r="C38" s="46" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B36" s="48">
-        <v>1</v>
-      </c>
-      <c r="C36" s="49" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B39" s="43">
+        <v>4</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B40" s="43">
+        <v>5</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B41" s="47">
+        <v>6</v>
+      </c>
+      <c r="C41" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B37" s="48">
-        <v>2</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B38" s="48">
-        <v>3</v>
-      </c>
-      <c r="C38" s="52" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="50"/>
+      <c r="B43" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B39" s="48">
-        <v>4</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B40" s="48">
-        <v>5</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B41" s="53">
-        <v>6</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-    </row>
-    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
     </row>
     <row r="54" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
     </row>
     <row r="55" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="58"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="B63" s="60"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="59"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
@@ -5517,9 +5692,9 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
+++ b/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricardo\Pepe\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP\PET\GitHub\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Pruebas Unitarias" sheetId="1" r:id="rId1"/>
     <sheet name="Pruebas Integrales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="254">
   <si>
     <t>Historial de Versiones</t>
   </si>
@@ -891,9 +891,6 @@
     <t>&lt;Paso n.   ..... &gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;CAYY&gt;&gt;</t>
-  </si>
-  <si>
     <t>Se deberá inserta una ficha, por cada caso de prueba (&lt;&lt;CAXX&gt;&gt;) definido.</t>
   </si>
   <si>
@@ -1005,9 +1002,6 @@
     <t>Se hara el registro de un cliente nuevo y el envio de un pedido nuevo para la recepcion del pedido</t>
   </si>
   <si>
-    <t>Ingresar a la aplicación movil</t>
-  </si>
-  <si>
     <t>Cliente - Administrador</t>
   </si>
   <si>
@@ -1017,9 +1011,6 @@
     <t>Cocina - Caja</t>
   </si>
   <si>
-    <t xml:space="preserve">Paso 1. </t>
-  </si>
-  <si>
     <t>Paso 2</t>
   </si>
   <si>
@@ -1048,6 +1039,25 @@
   </si>
   <si>
     <t>Se realizara el reenvio del pedido rechazado hacia caja para su facturación</t>
+  </si>
+  <si>
+    <t>ingresar a la aplicación movil, ingresar a la aplicación web</t>
+  </si>
+  <si>
+    <t>Caja - Administrador</t>
+  </si>
+  <si>
+    <t>ingresar a la aplicación web, tener creado los empleados (roles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paso 1. Ingresar a la aplicación movil y presionar el botón "Registrar", si el usuario ya existe pasar al Paso </t>
+  </si>
+  <si>
+    <t>Nombre y Apellidos, DNI, Sexo, Dirección, Celular, Teléfono, Correo
+Contraseña, Distrito, Referencia (opcional)</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1728,7 +1738,24 @@
       <right style="thin">
         <color rgb="FFB3B3B3"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1744,7 +1771,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1811,9 +1838,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1847,23 +1871,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,6 +1893,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1893,25 +1928,38 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2362,20 +2410,20 @@
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.84765625" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.34765625" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="25.875" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="13.34765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="25.84765625" customWidth="1"/>
+    <col min="12" max="12" width="19.84765625" customWidth="1"/>
+    <col min="13" max="13" width="15.34765625" customWidth="1"/>
     <col min="14" max="14" width="28.5" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2674,28 +2722,28 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="57"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
@@ -2708,11 +2756,11 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2751,11 +2799,11 @@
       <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
@@ -2772,7 +2820,7 @@
         <v>144</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -2788,11 +2836,11 @@
       <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +2857,7 @@
         <v>144</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -2825,11 +2873,11 @@
       <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2846,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -2862,11 +2910,11 @@
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2931,7 @@
         <v>144</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -2899,11 +2947,11 @@
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2968,7 @@
         <v>144</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -2936,11 +2984,11 @@
       <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
@@ -2957,7 +3005,7 @@
         <v>144</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -2973,11 +3021,11 @@
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
@@ -2994,7 +3042,7 @@
         <v>144</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -3010,11 +3058,11 @@
       <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="12" t="s">
         <v>14</v>
       </c>
@@ -3031,7 +3079,7 @@
         <v>144</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -3047,11 +3095,11 @@
       <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="12" t="s">
         <v>14</v>
       </c>
@@ -3068,7 +3116,7 @@
         <v>144</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -3084,11 +3132,11 @@
       <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="12" t="s">
         <v>14</v>
       </c>
@@ -3105,7 +3153,7 @@
         <v>144</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -3121,11 +3169,11 @@
       <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="12" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3190,7 @@
         <v>144</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M27" s="12">
         <v>43001</v>
@@ -3162,11 +3210,11 @@
       <c r="C28" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="12" t="s">
         <v>14</v>
       </c>
@@ -3183,7 +3231,7 @@
         <v>144</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -3199,11 +3247,11 @@
       <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="12" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3268,7 @@
         <v>144</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3236,11 +3284,11 @@
       <c r="C30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="12" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3305,7 @@
         <v>144</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -3273,11 +3321,11 @@
       <c r="C31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3342,7 @@
         <v>144</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -3310,11 +3358,11 @@
       <c r="C32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>144</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -3347,11 +3395,11 @@
       <c r="C33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="12" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3416,7 @@
         <v>144</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -3384,11 +3432,11 @@
       <c r="C34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="12" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +3453,7 @@
         <v>144</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -3421,11 +3469,11 @@
       <c r="C35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="12" t="s">
         <v>14</v>
       </c>
@@ -3442,7 +3490,7 @@
         <v>144</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3458,11 +3506,11 @@
       <c r="C36" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="12" t="s">
         <v>14</v>
       </c>
@@ -3493,11 +3541,11 @@
       <c r="C37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="12" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3562,7 @@
         <v>144</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3530,11 +3578,11 @@
       <c r="C38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="12" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3599,7 @@
         <v>144</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3567,11 +3615,11 @@
       <c r="C39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="12" t="s">
         <v>14</v>
       </c>
@@ -3588,7 +3636,7 @@
         <v>144</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3604,11 +3652,11 @@
       <c r="C40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="12" t="s">
         <v>14</v>
       </c>
@@ -3625,7 +3673,7 @@
         <v>144</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3641,11 +3689,11 @@
       <c r="C41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="12" t="s">
         <v>14</v>
       </c>
@@ -3662,7 +3710,7 @@
         <v>144</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3678,11 +3726,11 @@
       <c r="C42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="12" t="s">
         <v>14</v>
       </c>
@@ -3699,7 +3747,7 @@
         <v>144</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -3715,11 +3763,11 @@
       <c r="C43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="12" t="s">
         <v>14</v>
       </c>
@@ -3736,7 +3784,7 @@
         <v>144</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3752,11 +3800,11 @@
       <c r="C44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="12" t="s">
         <v>14</v>
       </c>
@@ -3773,7 +3821,7 @@
         <v>144</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3789,11 +3837,11 @@
       <c r="C45" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="12" t="s">
         <v>14</v>
       </c>
@@ -3810,7 +3858,7 @@
         <v>144</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -3826,11 +3874,11 @@
       <c r="C46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="12" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3895,7 @@
         <v>144</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -3863,11 +3911,11 @@
       <c r="C47" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="12" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3932,7 @@
         <v>144</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
@@ -3900,11 +3948,11 @@
       <c r="C48" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="12" t="s">
         <v>14</v>
       </c>
@@ -3921,7 +3969,7 @@
         <v>144</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
@@ -3937,11 +3985,11 @@
       <c r="C49" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
       <c r="G49" s="12" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +4006,7 @@
         <v>144</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
@@ -3974,11 +4022,11 @@
       <c r="C50" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="12" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +4043,7 @@
         <v>144</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
@@ -4011,11 +4059,11 @@
       <c r="C51" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
       <c r="G51" s="12" t="s">
         <v>142</v>
       </c>
@@ -4032,7 +4080,7 @@
         <v>144</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
@@ -4048,11 +4096,11 @@
       <c r="C52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="12" t="s">
         <v>142</v>
       </c>
@@ -4069,7 +4117,7 @@
         <v>144</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -4085,11 +4133,11 @@
       <c r="C53" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="12" t="s">
         <v>142</v>
       </c>
@@ -4106,7 +4154,7 @@
         <v>144</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -4122,11 +4170,11 @@
       <c r="C54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="12" t="s">
         <v>142</v>
       </c>
@@ -4143,7 +4191,7 @@
         <v>144</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
@@ -4159,11 +4207,11 @@
       <c r="C55" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="12" t="s">
         <v>14</v>
       </c>
@@ -4180,7 +4228,7 @@
         <v>144</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -4196,11 +4244,11 @@
       <c r="C56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="12" t="s">
         <v>14</v>
       </c>
@@ -4217,7 +4265,7 @@
         <v>144</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -4233,11 +4281,11 @@
       <c r="C57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="12" t="s">
         <v>14</v>
       </c>
@@ -4254,7 +4302,7 @@
         <v>144</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -4270,11 +4318,11 @@
       <c r="C58" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="12" t="s">
         <v>14</v>
       </c>
@@ -4291,7 +4339,7 @@
         <v>144</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -4307,11 +4355,11 @@
       <c r="C59" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="12" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4376,7 @@
         <v>144</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
@@ -4344,11 +4392,11 @@
       <c r="C60" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="12" t="s">
         <v>14</v>
       </c>
@@ -4365,7 +4413,7 @@
         <v>144</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -4381,11 +4429,11 @@
       <c r="C61" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="12" t="s">
         <v>142</v>
       </c>
@@ -4402,7 +4450,7 @@
         <v>144</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -4418,11 +4466,11 @@
       <c r="C62" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="12" t="s">
         <v>14</v>
       </c>
@@ -4439,7 +4487,7 @@
         <v>144</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
@@ -4455,11 +4503,11 @@
       <c r="C63" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="12" t="s">
         <v>14</v>
       </c>
@@ -4476,7 +4524,7 @@
         <v>144</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -4492,11 +4540,11 @@
       <c r="C64" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="60" t="s">
+      <c r="D64" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="61"/>
-      <c r="F64" s="62"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="12" t="s">
         <v>14</v>
       </c>
@@ -4513,7 +4561,7 @@
         <v>144</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -4529,11 +4577,11 @@
       <c r="C65" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="12" t="s">
         <v>14</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>144</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -4566,11 +4614,11 @@
       <c r="C66" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="12" t="s">
         <v>14</v>
       </c>
@@ -4587,7 +4635,7 @@
         <v>144</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -4603,11 +4651,11 @@
       <c r="C67" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="12" t="s">
         <v>14</v>
       </c>
@@ -4624,7 +4672,7 @@
         <v>144</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
@@ -4661,7 +4709,7 @@
         <v>147</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M68" s="12">
         <v>43008</v>
@@ -4702,7 +4750,7 @@
         <v>147</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M69" s="12">
         <v>43008</v>
@@ -4743,7 +4791,7 @@
         <v>147</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M70" s="12">
         <v>43008</v>
@@ -4784,7 +4832,7 @@
         <v>147</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M71" s="12">
         <v>43008</v>
@@ -4825,7 +4873,7 @@
         <v>147</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M72" s="12">
         <v>43008</v>
@@ -4866,7 +4914,7 @@
         <v>147</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M73" s="12">
         <v>43008</v>
@@ -4907,7 +4955,7 @@
         <v>147</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M74" s="12">
         <v>43008</v>
@@ -4948,7 +4996,7 @@
         <v>147</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M75" s="12">
         <v>43008</v>
@@ -4989,7 +5037,7 @@
         <v>147</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M76" s="12">
         <v>43008</v>
@@ -5001,29 +5049,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
@@ -5040,22 +5081,29 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:G76" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5128,553 +5176,562 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEED50-CEE4-469C-A96E-89D8FCAF0C9E}">
   <dimension ref="A5:IX64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="11" style="31" customWidth="1"/>
     <col min="3" max="3" width="32" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="31" customWidth="1"/>
     <col min="5" max="5" width="35" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="11.34765625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="39.34765625" style="31" customWidth="1"/>
     <col min="8" max="10" width="20.75" style="31" customWidth="1"/>
-    <col min="11" max="11" width="32.125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="32.09765625" style="31" customWidth="1"/>
     <col min="12" max="13" width="19.5" style="31" customWidth="1"/>
     <col min="14" max="14" width="19.25" style="31" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" style="31" customWidth="1"/>
     <col min="16" max="258" width="10.5" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="2:12" ht="30">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="2:12" ht="30.3">
       <c r="B7"/>
-      <c r="C7" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-    </row>
-    <row r="8" spans="2:12" ht="30">
-      <c r="C8" s="66" t="s">
+      <c r="C7" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="2:12" ht="30.3">
+      <c r="C8" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickBot="1">
+    <row r="12" spans="2:12" ht="15.9" thickBot="1">
       <c r="B12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="2:12" ht="111.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="2:12" ht="112" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="17" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="83" t="s">
         <v>185</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="82" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="53"/>
+    </row>
+    <row r="20" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="E18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="83" t="s">
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+    </row>
+    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B26" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="60">
+      <c r="B27" s="42">
+        <v>1</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="90"/>
+    </row>
+    <row r="28" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B28" s="42">
+        <v>2</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="E19" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="74"/>
-    </row>
-    <row r="20" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="83" t="s">
+      <c r="D28" s="85"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B29" s="42">
+        <v>3</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="E20" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="74"/>
-    </row>
-    <row r="21" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="83" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="74"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="83" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="74"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B26" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="43">
-        <v>1</v>
-      </c>
-      <c r="C27" s="44" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B30" s="42">
+        <v>4</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="43">
-        <v>2</v>
-      </c>
-      <c r="C28" s="44" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="2:7" ht="19.899999999999999" customHeight="1">
+      <c r="B31" s="42">
+        <v>5</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="43">
-        <v>3</v>
-      </c>
-      <c r="C29" s="44" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="2:7" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B32" s="46">
+        <v>6</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="43">
-        <v>4</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="43">
-        <v>5</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="2:7" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B32" s="47">
-        <v>6</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="49"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="34" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B35" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B36" s="42">
+        <v>1</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B37" s="42">
+        <v>2</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="44"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B38" s="42">
+        <v>3</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B39" s="42">
+        <v>4</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="B40" s="42">
+        <v>5</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="B41" s="46">
+        <v>6</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1">
+      <c r="A43" s="49"/>
+      <c r="B43" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B35" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B36" s="43">
-        <v>1</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B37" s="43">
-        <v>2</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="45"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B38" s="43">
-        <v>3</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B39" s="43">
-        <v>4</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="45"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="B40" s="43">
-        <v>5</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="45"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B41" s="47">
-        <v>6</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="49"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-    </row>
-    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="50"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="50"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
     </row>
     <row r="50" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
     </row>
     <row r="53" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
     </row>
     <row r="54" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="B63" s="53"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="C5:F5"/>
@@ -5691,7 +5748,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
+++ b/UTP_Aplicacion/1. Analisis/Pruebas-Dinámicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP\PET\GitHub\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ricardo\Pepe\UTP_APLICACION\UTP_Aplicacion\1. Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="298">
   <si>
     <t>Historial de Versiones</t>
   </si>
@@ -977,25 +977,16 @@
     <t>Caja - Cocina</t>
   </si>
   <si>
-    <t>Se realizara el rechazo de un pedido terminado por falta de platos del pedido</t>
-  </si>
-  <si>
     <t>Se realizara el reenvio del pedido rechazado hacia caja para su facturación</t>
   </si>
   <si>
     <t>ingresar a la aplicación movil, ingresar a la aplicación web</t>
   </si>
   <si>
-    <t>Caja - Administrador</t>
-  </si>
-  <si>
     <t>ingresar a la aplicación web, tener creado los empleados (roles)</t>
   </si>
   <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Se realizara el registro de un cliente nuevo y el envio de un pedido nuevo para la recepcion del pedido</t>
   </si>
   <si>
     <t>Nombre y Apellidos, DNI, Sexo, Dirección, Celular, Teléfono, Correo
@@ -1087,59 +1078,154 @@
 Aparecera el pedido enviado por el cliente.</t>
   </si>
   <si>
-    <t>Paso 1</t>
-  </si>
-  <si>
-    <t>Paso 2</t>
-  </si>
-  <si>
-    <t>Paso 3</t>
-  </si>
-  <si>
-    <t>Paso 4</t>
-  </si>
-  <si>
-    <t>Paso 5</t>
-  </si>
-  <si>
-    <t>Paso 6</t>
+    <t>usuario y contraseña</t>
+  </si>
+  <si>
+    <t>Inicio de sesión exitoso y redirección a la pantalla de inicio de cocina</t>
+  </si>
+  <si>
+    <t>Mostrará en pantalla el pedido en la columna "En Cocina"</t>
+  </si>
+  <si>
+    <t>Mostrar el pedido en la columna "En Cocina"</t>
+  </si>
+  <si>
+    <t>Se realizara el registro de un cliente nuevo y el envio de un pedido nuevo para la recepcion del pedido en el módulo Administrador</t>
+  </si>
+  <si>
+    <t>Paso 1. Buscar el pedido y presionar el botón  "Enviar a Cocina".
+Aparecera una ventana modal mostrando la opción para cambiar de estado del pedido para que sea enviado a cocina presionando el botón "Enviar a Cocina" y Guardando los datos.</t>
   </si>
   <si>
     <t xml:space="preserve">Componente Cocina
-Paso 1. Ingresar a la aplicación con el correo y contraseña."
+Paso 2. Ingresar a la aplicación con el correo y contraseña."
 </t>
   </si>
   <si>
-    <t>usuario y contraseña</t>
-  </si>
-  <si>
-    <t>Inicio de sesión exitoso y redirección a la pantalla de inicio de cocina</t>
-  </si>
-  <si>
-    <t>Mostrará en pantalla el pedido en la columna "En Cocina"</t>
-  </si>
-  <si>
-    <t>Paso 2. Aparecerá el pedido en la columna "En cocina"</t>
-  </si>
-  <si>
-    <t>Mostrar el pedido en la columna "En Cocina"</t>
-  </si>
-  <si>
-    <t>Paso 7. Buscar el pedido y presionar el botón  "Enviar a Cocina".
+    <t>Componente Cocina
+Paso 3. Aparecerá el pedido en la columna "En cocina"</t>
+  </si>
+  <si>
+    <t>Componente Administrador
+Paso 7. Buscar el pedido y presionar el botón  "Enviar a Cocina".
 Aparecera una ventana modal mostrando la opción para cambiar de estado del pedido para que sea enviado a cocina presionando el botón "Enviar a Cocina" y Guardando los datos.</t>
   </si>
   <si>
-    <t>Paso 3. Presionar el botón "Ver". Aparecerá uma ventana modal mostrando la opción para cambiar el esta del pedido para que sea enviado a caja presionando el botón  "Enviar a Caja" y guardando los datos.</t>
-  </si>
-  <si>
-    <t>Desaparecera el pedido siendo enviado a Caja.</t>
+    <t>Componente Cocina
+Paso 1. Presionar el botón "Ver". Aparecerá una ventana modal mostrando la opción para cambiar el estado del pedido para que sea enviado a caja presionando el botón  "Enviar a Caja" y guardando los datos.</t>
+  </si>
+  <si>
+    <t>Desaparecera el pedido, este ha sido enviado a Caja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente Caja
+Paso 1. Ingresar a la aplicación con el correo y contraseña.
+</t>
+  </si>
+  <si>
+    <t>Inicio de sesión exitoso y redirección a la pantalla de inicio de caja</t>
+  </si>
+  <si>
+    <t>Se realizara el rechazo de un pedido terminado por falta de platos en el pedido</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 2. Se visualiza el pedido en la pestaña Lista Pedidos. Para regresar el pedido hacia cocina por falta de algun plato y/o algun error encontrado se debera dirigir a la columna "CAMBIAR" del pedido y seleccionar el botón "Ver".</t>
+  </si>
+  <si>
+    <t>observación</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 3. En la ventana modal se debera seleccionar sobre el check para hacer el cambio del estado e ingresar obligatoriamente una observación y presionar el botón "Guardar" para que el pedido cambie de estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente Cocina
+Paso 4. Se mostrará en la columna  "Pedidos Devueltos" </t>
+  </si>
+  <si>
+    <t>Mostrar en la columna "Pedidos Devueltos" el pedido enviado desde caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desaparece el pedido, cambiando de estado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente Cocina
+Paso 5. Presionar el botón "Ver" </t>
+  </si>
+  <si>
+    <t>Mostar una ventana modal, donde se podra hacer el cambio de estado del pedido.</t>
+  </si>
+  <si>
+    <t>Paso 6. En la ventana modal aparecerá un botón el cual esta desactivado, este tendra que ser activado y presionar en el botón "Guardar" para que el pedido sea enviado nuevamente a Caja.</t>
+  </si>
+  <si>
+    <t>El pedido desaparecera de la columna "Pedidos Devueltos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente Cocina
+Paso 1. Presionar el botón "Ver" </t>
+  </si>
+  <si>
+    <t>Componente Cocina
+Paso 2. En la ventana modal aparecerá un botón el cual esta desactivado, este tendra que ser activado y presionar en el botón "Guardar" para que el pedido sea enviado nuevamente a Caja.</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 3. En la pestaña "Lista Pedidos" volvera a aparecer el pedido.</t>
+  </si>
+  <si>
+    <t>El pedido aparecera en la pestaña de "Lista Pedidos".</t>
+  </si>
+  <si>
+    <t>CA007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja </t>
+  </si>
+  <si>
+    <t>Mostará una vista previa de la Boleta de Venta.</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 1. En la pestaña "Lista Pedidos" se debera buscar el pedido y luego ubicarse en la columna "ACCION" para poder presionar el icono en forma de diskette para poder pasar a visualizar la Boleta de Venta.</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 2. Luego de revisar la boleta se presionara el botón "Imprimir".</t>
+  </si>
+  <si>
+    <t>Mostrará la boleta generada en pdf lista para su impresión y el pedido desaparecerá de la pestaña "Lista Pedidos".</t>
+  </si>
+  <si>
+    <t>Se realizara la generación de la boleta de venta del pedido y el pago de esta.</t>
+  </si>
+  <si>
+    <t>Componente Caja
+Paso 3. Nos ubicaremos en la pestaña "Documentos Generados", ubicaremos el pedido y nos posicionaremos en la columna "ACCION" donde presionaremos el botón "PAGAR", este nos mostrará una ventana de advertencia a la cual le daremos en "Si, Pagar!"</t>
+  </si>
+  <si>
+    <t>El pedido desaparecerá de la pestaña "Documentos Generados" y la podremos visualizar desde el menú Documentos=&gt;Documentos Pagados</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Se realizara la asignación de repartidor</t>
+  </si>
+  <si>
+    <t>Componente Administrador
+Paso 1. Nos ubicaremos en el menú Pedidos=&gt;Gestión de Pedidos.  En la Columna Emision de Comprobante aparecerá el pedido que ya ha sido pagado, presionaremos el botón "asiganar", donde nos aparecera una ventana modal donde podremos indicar el repartidor que va hacer la entrega, presionamos el botón "Guardar" para que los cambios hagan efecto.</t>
+  </si>
+  <si>
+    <t>El pedido debera desaparecer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1218,12 +1304,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial2"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1287,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1443,19 +1523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FFB3B3B3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB3B3B3"/>
-      </right>
-      <top style="double">
-        <color rgb="FFB3B3B3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB3B3B3"/>
       </left>
@@ -1497,21 +1564,6 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1745,30 +1797,6 @@
       <bottom style="thin">
         <color rgb="FFB3B3B3"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB3B3B3"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFB3B3B3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB3B3B3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB3B3B3"/>
-      </right>
-      <top style="double">
-        <color rgb="FFB3B3B3"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1830,6 +1858,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="double">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1842,7 +1991,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1898,64 +2047,57 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1988,21 +2130,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2044,11 +2205,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2058,23 +2227,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2527,20 +2699,20 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.84765625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
-    <col min="6" max="6" width="20.34765625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" customWidth="1"/>
-    <col min="11" max="11" width="25.84765625" customWidth="1"/>
-    <col min="12" max="12" width="19.84765625" customWidth="1"/>
-    <col min="13" max="13" width="15.34765625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="28.5" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2569,11 +2741,11 @@
         <v>6</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="D2" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="D2" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -2589,11 +2761,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="D3" s="72">
+      <c r="D3" s="76">
         <v>42999</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2609,11 +2781,11 @@
         <v>7</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
@@ -2627,11 +2799,11 @@
       <c r="A5" s="3"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -2645,11 +2817,11 @@
       <c r="A6" s="3"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2663,9 +2835,9 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2855,28 +3027,28 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="81"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15">
@@ -2889,11 +3061,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2922,28 +3094,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.2">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J18" s="11">
@@ -2952,35 +3124,35 @@
       <c r="K18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="63"/>
+      <c r="M18" s="60"/>
       <c r="N18" s="10"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="31.2">
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="10">
         <v>2</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J19" s="11">
@@ -2989,35 +3161,35 @@
       <c r="K19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="M19" s="63"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="10"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="31.2">
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="10">
         <v>3</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J20" s="11">
@@ -3026,35 +3198,35 @@
       <c r="K20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="10"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="31.2">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="10">
         <v>4</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="83" t="s">
+      <c r="C21" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J21" s="11">
@@ -3063,35 +3235,35 @@
       <c r="K21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="63"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="10"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="31.2">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="10">
         <v>5</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="75" t="s">
+      <c r="C22" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J22" s="11">
@@ -3100,35 +3272,35 @@
       <c r="K22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="L22" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="M22" s="63"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="10"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="31.2">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="10">
         <v>6</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="75" t="s">
+      <c r="C23" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J23" s="11">
@@ -3137,35 +3309,35 @@
       <c r="K23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="L23" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="60"/>
       <c r="N23" s="10"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="31.2">
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="10">
         <v>7</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="75" t="s">
+      <c r="C24" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J24" s="11">
@@ -3174,35 +3346,35 @@
       <c r="K24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="L24" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="10"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="31.2">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="10">
         <v>8</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="75" t="s">
+      <c r="C25" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J25" s="11">
@@ -3211,35 +3383,35 @@
       <c r="K25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="L25" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="M25" s="63"/>
+      <c r="M25" s="60"/>
       <c r="N25" s="10"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="31.2">
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="10">
         <v>9</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="75" t="s">
+      <c r="C26" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J26" s="11">
@@ -3248,35 +3420,35 @@
       <c r="K26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="60"/>
       <c r="N26" s="10"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="31.2">
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="10">
         <v>10</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J27" s="11">
@@ -3285,35 +3457,35 @@
       <c r="K27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L27" s="61" t="s">
+      <c r="L27" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="M27" s="63"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="10"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="31.2">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="10">
         <v>11</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="57" t="s">
         <v>138</v>
       </c>
       <c r="J28" s="11">
@@ -3322,10 +3494,10 @@
       <c r="K28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="60">
         <v>43001</v>
       </c>
       <c r="N28" s="10" t="s">
@@ -3333,28 +3505,28 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="31.2">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="10">
         <v>12</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J29" s="11">
@@ -3363,35 +3535,35 @@
       <c r="K29" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L29" s="61" t="s">
+      <c r="L29" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="M29" s="63"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="10"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="31.2">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="10">
         <v>13</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J30" s="11">
@@ -3400,35 +3572,35 @@
       <c r="K30" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="M30" s="63"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="10"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="31.2">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="10">
         <v>14</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J31" s="11">
@@ -3437,35 +3609,35 @@
       <c r="K31" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L31" s="61" t="s">
+      <c r="L31" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="63"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="10"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="31.2">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="10">
         <v>15</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J32" s="11">
@@ -3474,35 +3646,35 @@
       <c r="K32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="M32" s="63"/>
+      <c r="M32" s="60"/>
       <c r="N32" s="10"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="31.2">
+    <row r="33" spans="1:15" ht="31.5">
       <c r="A33" s="10">
         <v>16</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="I33" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J33" s="11">
@@ -3511,35 +3683,35 @@
       <c r="K33" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="M33" s="63"/>
+      <c r="M33" s="60"/>
       <c r="N33" s="10"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="31.2">
+    <row r="34" spans="1:15" ht="31.5">
       <c r="A34" s="10">
         <v>17</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J34" s="11">
@@ -3548,35 +3720,35 @@
       <c r="K34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L34" s="61" t="s">
+      <c r="L34" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="M34" s="60"/>
       <c r="N34" s="10"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="31.2">
+    <row r="35" spans="1:15" ht="31.5">
       <c r="A35" s="10">
         <v>18</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
       <c r="G35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="I35" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J35" s="11">
@@ -3585,35 +3757,35 @@
       <c r="K35" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L35" s="61" t="s">
+      <c r="L35" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="M35" s="63"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="10"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="31.2">
+    <row r="36" spans="1:15" ht="31.5">
       <c r="A36" s="10">
         <v>19</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
       <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J36" s="11">
@@ -3622,35 +3794,35 @@
       <c r="K36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="63"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="10"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="31.2">
+    <row r="37" spans="1:15" ht="31.5">
       <c r="A37" s="10">
         <v>20</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
       <c r="G37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J37" s="11">
@@ -3659,33 +3831,33 @@
       <c r="K37" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="63"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="60"/>
       <c r="N37" s="10"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="31.2">
+    <row r="38" spans="1:15" ht="31.5">
       <c r="A38" s="10">
         <v>21</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J38" s="11">
@@ -3694,35 +3866,35 @@
       <c r="K38" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="L38" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M38" s="63"/>
+      <c r="M38" s="60"/>
       <c r="N38" s="10"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="31.2">
+    <row r="39" spans="1:15" ht="31.5">
       <c r="A39" s="10">
         <v>22</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I39" s="60" t="s">
+      <c r="I39" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J39" s="11">
@@ -3731,35 +3903,35 @@
       <c r="K39" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M39" s="63"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="10"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="31.2">
+    <row r="40" spans="1:15" ht="31.5">
       <c r="A40" s="10">
         <v>23</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J40" s="11">
@@ -3768,35 +3940,35 @@
       <c r="K40" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M40" s="63"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="10"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="31.2">
+    <row r="41" spans="1:15" ht="31.5">
       <c r="A41" s="10">
         <v>24</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
       <c r="G41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J41" s="11">
@@ -3805,35 +3977,35 @@
       <c r="K41" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L41" s="61" t="s">
+      <c r="L41" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M41" s="63"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="10"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="31.2">
+    <row r="42" spans="1:15" ht="31.5">
       <c r="A42" s="10">
         <v>25</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
       <c r="G42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J42" s="11">
@@ -3842,35 +4014,35 @@
       <c r="K42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M42" s="63"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="10"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="31.2">
+    <row r="43" spans="1:15" ht="31.5">
       <c r="A43" s="10">
         <v>26</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
       <c r="G43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="59" t="s">
+      <c r="H43" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I43" s="60" t="s">
+      <c r="I43" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J43" s="11">
@@ -3879,35 +4051,35 @@
       <c r="K43" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L43" s="61" t="s">
+      <c r="L43" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M43" s="63"/>
+      <c r="M43" s="60"/>
       <c r="N43" s="10"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="31.2">
+    <row r="44" spans="1:15" ht="31.5">
       <c r="A44" s="10">
         <v>27</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J44" s="11">
@@ -3916,35 +4088,35 @@
       <c r="K44" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L44" s="61" t="s">
+      <c r="L44" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="63"/>
+      <c r="M44" s="60"/>
       <c r="N44" s="10"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="31.2">
+    <row r="45" spans="1:15" ht="31.5">
       <c r="A45" s="10">
         <v>28</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J45" s="11">
@@ -3953,35 +4125,35 @@
       <c r="K45" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L45" s="61" t="s">
+      <c r="L45" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M45" s="63"/>
+      <c r="M45" s="60"/>
       <c r="N45" s="10"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="31.2">
+    <row r="46" spans="1:15" ht="31.5">
       <c r="A46" s="10">
         <v>29</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
       <c r="G46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J46" s="11">
@@ -3990,35 +4162,35 @@
       <c r="K46" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L46" s="61" t="s">
+      <c r="L46" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M46" s="63"/>
+      <c r="M46" s="60"/>
       <c r="N46" s="10"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="31.2">
+    <row r="47" spans="1:15" ht="31.5">
       <c r="A47" s="10">
         <v>30</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
       <c r="G47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I47" s="60" t="s">
+      <c r="I47" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J47" s="11">
@@ -4027,35 +4199,35 @@
       <c r="K47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L47" s="61" t="s">
+      <c r="L47" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M47" s="63"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="10"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="31.2">
+    <row r="48" spans="1:15" ht="31.5">
       <c r="A48" s="10">
         <v>31</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I48" s="60" t="s">
+      <c r="I48" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J48" s="11">
@@ -4064,35 +4236,35 @@
       <c r="K48" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M48" s="63"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="10"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="31.2">
+    <row r="49" spans="1:15" ht="31.5">
       <c r="A49" s="10">
         <v>32</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J49" s="11">
@@ -4101,35 +4273,35 @@
       <c r="K49" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L49" s="61" t="s">
+      <c r="L49" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M49" s="63"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="10"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="31.2">
+    <row r="50" spans="1:15" ht="31.5">
       <c r="A50" s="10">
         <v>33</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
       <c r="G50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I50" s="60" t="s">
+      <c r="I50" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J50" s="11">
@@ -4138,35 +4310,35 @@
       <c r="K50" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L50" s="61" t="s">
+      <c r="L50" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M50" s="63"/>
+      <c r="M50" s="60"/>
       <c r="N50" s="10"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="31.2">
+    <row r="51" spans="1:15" ht="31.5">
       <c r="A51" s="10">
         <v>34</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="75" t="s">
+      <c r="D51" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I51" s="60" t="s">
+      <c r="I51" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J51" s="11">
@@ -4175,35 +4347,35 @@
       <c r="K51" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L51" s="61" t="s">
+      <c r="L51" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M51" s="63"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="10"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="31.2">
+    <row r="52" spans="1:15" ht="31.5">
       <c r="A52" s="10">
         <v>35</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
       <c r="G52" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I52" s="60" t="s">
+      <c r="I52" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J52" s="11">
@@ -4212,35 +4384,35 @@
       <c r="K52" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L52" s="61" t="s">
+      <c r="L52" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M52" s="63"/>
+      <c r="M52" s="60"/>
       <c r="N52" s="10"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="31.2">
+    <row r="53" spans="1:15" ht="31.5">
       <c r="A53" s="10">
         <v>36</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
       <c r="G53" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I53" s="60" t="s">
+      <c r="I53" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J53" s="11">
@@ -4249,35 +4421,35 @@
       <c r="K53" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L53" s="61" t="s">
+      <c r="L53" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M53" s="63"/>
+      <c r="M53" s="60"/>
       <c r="N53" s="10"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="31.2">
+    <row r="54" spans="1:15" ht="31.5">
       <c r="A54" s="10">
         <v>37</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
       <c r="G54" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I54" s="60" t="s">
+      <c r="I54" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J54" s="11">
@@ -4286,35 +4458,35 @@
       <c r="K54" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L54" s="61" t="s">
+      <c r="L54" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M54" s="63"/>
+      <c r="M54" s="60"/>
       <c r="N54" s="10"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="31.2">
+    <row r="55" spans="1:15" ht="31.5">
       <c r="A55" s="10">
         <v>38</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
       <c r="G55" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I55" s="60" t="s">
+      <c r="I55" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J55" s="11">
@@ -4323,35 +4495,35 @@
       <c r="K55" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L55" s="61" t="s">
+      <c r="L55" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M55" s="63"/>
+      <c r="M55" s="60"/>
       <c r="N55" s="10"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="31.2">
+    <row r="56" spans="1:15" ht="31.5">
       <c r="A56" s="10">
         <v>39</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="59" t="s">
+      <c r="H56" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I56" s="60" t="s">
+      <c r="I56" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J56" s="11">
@@ -4360,35 +4532,35 @@
       <c r="K56" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L56" s="61" t="s">
+      <c r="L56" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M56" s="63"/>
+      <c r="M56" s="60"/>
       <c r="N56" s="10"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="31.2">
+    <row r="57" spans="1:15" ht="31.5">
       <c r="A57" s="10">
         <v>40</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
       <c r="G57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="59" t="s">
+      <c r="H57" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J57" s="11">
@@ -4397,35 +4569,35 @@
       <c r="K57" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L57" s="61" t="s">
+      <c r="L57" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="63"/>
+      <c r="M57" s="60"/>
       <c r="N57" s="10"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="31.2">
+    <row r="58" spans="1:15" ht="31.5">
       <c r="A58" s="10">
         <v>41</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="59" t="s">
+      <c r="H58" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J58" s="11">
@@ -4434,35 +4606,35 @@
       <c r="K58" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L58" s="61" t="s">
+      <c r="L58" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M58" s="63"/>
+      <c r="M58" s="60"/>
       <c r="N58" s="10"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="31.2">
+    <row r="59" spans="1:15" ht="31.5">
       <c r="A59" s="10">
         <v>42</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="75" t="s">
+      <c r="D59" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
       <c r="G59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I59" s="60" t="s">
+      <c r="I59" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J59" s="11">
@@ -4471,35 +4643,35 @@
       <c r="K59" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L59" s="61" t="s">
+      <c r="L59" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M59" s="63"/>
+      <c r="M59" s="60"/>
       <c r="N59" s="10"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="31.2">
+    <row r="60" spans="1:15" ht="31.5">
       <c r="A60" s="10">
         <v>43</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="79" t="s">
+      <c r="D60" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="59" t="s">
+      <c r="H60" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J60" s="11">
@@ -4508,35 +4680,35 @@
       <c r="K60" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L60" s="61" t="s">
+      <c r="L60" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="M60" s="63"/>
+      <c r="M60" s="60"/>
       <c r="N60" s="10"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="31.2">
+    <row r="61" spans="1:15" ht="31.5">
       <c r="A61" s="10">
         <v>44</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="79" t="s">
+      <c r="D61" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J61" s="11">
@@ -4545,35 +4717,35 @@
       <c r="K61" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L61" s="61" t="s">
+      <c r="L61" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="M61" s="63"/>
+      <c r="M61" s="60"/>
       <c r="N61" s="10"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="31.2">
+    <row r="62" spans="1:15" ht="31.5">
       <c r="A62" s="10">
         <v>45</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="60" t="s">
+      <c r="I62" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J62" s="11">
@@ -4582,35 +4754,35 @@
       <c r="K62" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L62" s="61" t="s">
+      <c r="L62" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="M62" s="63"/>
+      <c r="M62" s="60"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
     </row>
-    <row r="63" spans="1:15" ht="31.2">
+    <row r="63" spans="1:15" ht="31.5">
       <c r="A63" s="10">
         <v>46</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
       <c r="G63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I63" s="60" t="s">
+      <c r="I63" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J63" s="11">
@@ -4619,35 +4791,35 @@
       <c r="K63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L63" s="61" t="s">
+      <c r="L63" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="M63" s="63"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
     </row>
-    <row r="64" spans="1:15" ht="31.2">
+    <row r="64" spans="1:15" ht="31.5">
       <c r="A64" s="10">
         <v>47</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
       <c r="G64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I64" s="60" t="s">
+      <c r="I64" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J64" s="11">
@@ -4656,35 +4828,35 @@
       <c r="K64" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L64" s="62" t="s">
+      <c r="L64" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="M64" s="63"/>
+      <c r="M64" s="60"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
     </row>
-    <row r="65" spans="1:15" ht="31.2">
+    <row r="65" spans="1:15" ht="31.5">
       <c r="A65" s="10">
         <v>48</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82"/>
       <c r="G65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J65" s="11">
@@ -4693,35 +4865,35 @@
       <c r="K65" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L65" s="62" t="s">
+      <c r="L65" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="M65" s="63"/>
+      <c r="M65" s="60"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
     </row>
-    <row r="66" spans="1:15" ht="31.2">
+    <row r="66" spans="1:15" ht="31.5">
       <c r="A66" s="10">
         <v>49</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
       <c r="G66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="59" t="s">
+      <c r="H66" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I66" s="60" t="s">
+      <c r="I66" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J66" s="11">
@@ -4730,35 +4902,35 @@
       <c r="K66" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L66" s="62" t="s">
+      <c r="L66" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="M66" s="63"/>
+      <c r="M66" s="60"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
     </row>
-    <row r="67" spans="1:15" ht="31.2">
+    <row r="67" spans="1:15" ht="31.5">
       <c r="A67" s="10">
         <v>50</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="75" t="s">
+      <c r="D67" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
       <c r="G67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="60" t="s">
+      <c r="I67" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J67" s="11">
@@ -4767,35 +4939,35 @@
       <c r="K67" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L67" s="62" t="s">
+      <c r="L67" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="M67" s="63"/>
+      <c r="M67" s="60"/>
       <c r="N67" s="10"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="31.2">
+    <row r="68" spans="1:15" ht="31.5">
       <c r="A68" s="12">
         <v>51</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="75" t="s">
+      <c r="D68" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="59" t="s">
+      <c r="H68" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I68" s="60" t="s">
+      <c r="I68" s="57" t="s">
         <v>136</v>
       </c>
       <c r="J68" s="11">
@@ -4804,35 +4976,35 @@
       <c r="K68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="62" t="s">
+      <c r="L68" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="M68" s="63"/>
+      <c r="M68" s="60"/>
       <c r="N68" s="10"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="31.2">
+    <row r="69" spans="1:15" ht="31.5">
       <c r="A69" s="12">
         <v>52</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="69" t="s">
+      <c r="D69" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="70"/>
-      <c r="F69" s="71"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="75"/>
       <c r="G69" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="59" t="s">
+      <c r="H69" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J69" s="11">
@@ -4841,10 +5013,10 @@
       <c r="K69" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L69" s="62" t="s">
+      <c r="L69" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="M69" s="63">
+      <c r="M69" s="60">
         <v>43008</v>
       </c>
       <c r="N69" s="10" t="s">
@@ -4852,28 +5024,28 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="31.2">
+    <row r="70" spans="1:15" ht="31.5">
       <c r="A70" s="12">
         <v>53</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="71"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="75"/>
       <c r="G70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="59" t="s">
+      <c r="H70" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I70" s="60" t="s">
+      <c r="I70" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J70" s="11">
@@ -4882,10 +5054,10 @@
       <c r="K70" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L70" s="62" t="s">
+      <c r="L70" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="M70" s="63">
+      <c r="M70" s="60">
         <v>43008</v>
       </c>
       <c r="N70" s="10" t="s">
@@ -4893,28 +5065,28 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="31.2">
+    <row r="71" spans="1:15" ht="31.5">
       <c r="A71" s="12">
         <v>54</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="69" t="s">
+      <c r="D71" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="71"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="75"/>
       <c r="G71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="60" t="s">
+      <c r="I71" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J71" s="11">
@@ -4923,10 +5095,10 @@
       <c r="K71" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L71" s="62" t="s">
+      <c r="L71" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="M71" s="63">
+      <c r="M71" s="60">
         <v>43008</v>
       </c>
       <c r="N71" s="10" t="s">
@@ -4934,28 +5106,28 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="31.2">
+    <row r="72" spans="1:15" ht="31.5">
       <c r="A72" s="12">
         <v>55</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="69" t="s">
+      <c r="D72" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="71"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="75"/>
       <c r="G72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="59" t="s">
+      <c r="H72" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="60" t="s">
+      <c r="I72" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J72" s="11">
@@ -4964,10 +5136,10 @@
       <c r="K72" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L72" s="62" t="s">
+      <c r="L72" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="M72" s="63">
+      <c r="M72" s="60">
         <v>43008</v>
       </c>
       <c r="N72" s="10" t="s">
@@ -4975,28 +5147,28 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="31.2">
+    <row r="73" spans="1:15" ht="31.5">
       <c r="A73" s="12">
         <v>56</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="71"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="75"/>
       <c r="G73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="59" t="s">
+      <c r="H73" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J73" s="11">
@@ -5005,10 +5177,10 @@
       <c r="K73" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L73" s="62" t="s">
+      <c r="L73" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="M73" s="63">
+      <c r="M73" s="60">
         <v>43008</v>
       </c>
       <c r="N73" s="10" t="s">
@@ -5016,28 +5188,28 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="31.2">
+    <row r="74" spans="1:15" ht="31.5">
       <c r="A74" s="12">
         <v>57</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="69" t="s">
+      <c r="D74" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
       <c r="G74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I74" s="60" t="s">
+      <c r="I74" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J74" s="11">
@@ -5046,10 +5218,10 @@
       <c r="K74" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L74" s="62" t="s">
+      <c r="L74" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="M74" s="63">
+      <c r="M74" s="60">
         <v>43008</v>
       </c>
       <c r="N74" s="10" t="s">
@@ -5057,28 +5229,28 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="31.2">
+    <row r="75" spans="1:15" ht="31.5">
       <c r="A75" s="12">
         <v>58</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="D75" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="70"/>
-      <c r="F75" s="71"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="75"/>
       <c r="G75" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="59" t="s">
+      <c r="H75" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I75" s="60" t="s">
+      <c r="I75" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J75" s="11">
@@ -5087,10 +5259,10 @@
       <c r="K75" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L75" s="62" t="s">
+      <c r="L75" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="M75" s="63">
+      <c r="M75" s="60">
         <v>43008</v>
       </c>
       <c r="N75" s="10" t="s">
@@ -5098,28 +5270,28 @@
       </c>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="31.2">
+    <row r="76" spans="1:15" ht="31.5">
       <c r="A76" s="12">
         <v>59</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="75"/>
       <c r="G76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="I76" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J76" s="11">
@@ -5128,10 +5300,10 @@
       <c r="K76" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="62" t="s">
+      <c r="L76" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="M76" s="63">
+      <c r="M76" s="60">
         <v>43008</v>
       </c>
       <c r="N76" s="10" t="s">
@@ -5139,28 +5311,28 @@
       </c>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="31.2">
+    <row r="77" spans="1:15" ht="31.5">
       <c r="A77" s="12">
         <v>60</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="70"/>
-      <c r="F77" s="71"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="75"/>
       <c r="G77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="59" t="s">
+      <c r="H77" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="57" t="s">
         <v>139</v>
       </c>
       <c r="J77" s="11">
@@ -5169,10 +5341,10 @@
       <c r="K77" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L77" s="62" t="s">
+      <c r="L77" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="M77" s="63">
+      <c r="M77" s="60">
         <v>43008</v>
       </c>
       <c r="N77" s="10" t="s">
@@ -5321,729 +5493,919 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEEED50-CEE4-469C-A96E-89D8FCAF0C9E}">
-  <dimension ref="A5:IX62"/>
+  <dimension ref="A5:IX70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3015" topLeftCell="A69" activePane="bottomLeft"/>
+      <selection activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="24" customWidth="1"/>
     <col min="2" max="2" width="11" style="24" customWidth="1"/>
     <col min="3" max="3" width="32" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="24" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.34765625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="39.34765625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="24" customWidth="1"/>
     <col min="8" max="10" width="20.75" style="24" customWidth="1"/>
-    <col min="11" max="11" width="32.09765625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="24" customWidth="1"/>
     <col min="12" max="13" width="19.5" style="24" customWidth="1"/>
     <col min="14" max="14" width="19.25" style="24" customWidth="1"/>
-    <col min="15" max="15" width="13.09765625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="24" customWidth="1"/>
     <col min="16" max="258" width="10.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:12">
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" spans="2:12" ht="30.3">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="2:12" ht="30">
       <c r="B7"/>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-    </row>
-    <row r="8" spans="2:12" ht="30.3">
-      <c r="C8" s="89" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+    </row>
+    <row r="8" spans="2:12" ht="30">
+      <c r="C8" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="12" spans="2:12" ht="15.9" thickBot="1">
+    <row r="12" spans="2:12" ht="16.5" thickBot="1">
       <c r="B12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="2:12" ht="112" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="90" t="s">
+    <row r="13" spans="2:12" ht="111.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="2:12" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="17" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="89"/>
+      <c r="D17" s="26" t="s">
         <v>177</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="92"/>
-    </row>
-    <row r="18" spans="2:7" ht="31.8" thickTop="1" thickBot="1">
-      <c r="B18" s="85" t="s">
+      <c r="G17" s="90"/>
+    </row>
+    <row r="18" spans="2:7" ht="32.25" thickTop="1">
+      <c r="B18" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="48" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="F18" s="93" t="s">
+      <c r="E18" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5">
+      <c r="B19" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="G18" s="94"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="B19" s="85" t="s">
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="2:7" ht="16.5">
+      <c r="B20" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5">
+      <c r="B21" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5">
+      <c r="B22" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+    </row>
+    <row r="23" spans="2:7" ht="16.5">
+      <c r="B23" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B24" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+    </row>
+    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="27"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B26" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B27" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="75">
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="2:7" ht="45">
+      <c r="B29" s="34">
+        <v>2</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="2:7" ht="105">
+      <c r="B30" s="34">
+        <v>3</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="2:7" ht="75">
+      <c r="B31" s="34">
+        <v>4</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="2:7" ht="60">
+      <c r="B32" s="34">
+        <v>5</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" ht="90">
+      <c r="B33" s="34">
+        <v>6</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" ht="150.75" thickBot="1">
+      <c r="B34" s="36">
+        <v>7</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B36" s="99" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="66"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="B20" s="85" t="s">
+      <c r="C36" s="99"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B37" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="135">
+      <c r="B38" s="34">
+        <v>1</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="60">
+      <c r="B39" s="34">
+        <v>2</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" ht="45">
+      <c r="B40" s="34">
+        <v>3</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A42" s="38"/>
+      <c r="B42" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="B21" s="85" t="s">
+      <c r="C42" s="99"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="120.75" thickBot="1">
+      <c r="A44" s="38"/>
+      <c r="B44" s="103">
+        <v>1</v>
+      </c>
+      <c r="C44" s="104" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="106"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B46" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-    </row>
-    <row r="22" spans="2:7" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="B22" s="85" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="B47" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60">
+      <c r="B48" s="34">
+        <v>1</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="2:7" ht="135">
+      <c r="B49" s="34">
+        <v>2</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="2:7" ht="120">
+      <c r="B50" s="34">
+        <v>3</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="2:7" ht="45">
+      <c r="B51" s="34">
+        <v>4</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="2:7" ht="30">
+      <c r="B52" s="34">
+        <v>5</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="2:7" ht="90.75" thickBot="1">
+      <c r="B53" s="36">
+        <v>6</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" spans="2:7" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B54" s="39"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="2:7" ht="18" thickTop="1" thickBot="1">
+      <c r="B55" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-    </row>
-    <row r="23" spans="2:7" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="B23" s="85" t="s">
+      <c r="C55" s="99"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="2:7" ht="17.25" thickTop="1">
+      <c r="B56" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="30">
+      <c r="B57" s="34">
+        <v>1</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="2:7" ht="105.75" thickBot="1">
+      <c r="B58" s="36">
+        <v>2</v>
+      </c>
+      <c r="C58" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="2:7" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B59" s="36">
+        <v>3</v>
+      </c>
+      <c r="C59" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" s="37"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" thickTop="1" thickBot="1"/>
+    <row r="61" spans="2:7" ht="18" thickTop="1" thickBot="1">
+      <c r="B61" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="46" t="s">
+      <c r="C61" s="99"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+    </row>
+    <row r="62" spans="2:7" ht="17.25" thickTop="1">
+      <c r="B62" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="120">
+      <c r="B63" s="34">
+        <v>1</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B26" s="32" t="s">
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="2:7" ht="45">
+      <c r="B64" s="34">
+        <v>2</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="2:7" ht="150.75" thickBot="1">
+      <c r="B65" s="36">
+        <v>3</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" s="37"/>
+    </row>
+    <row r="66" spans="2:7" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+    </row>
+    <row r="67" spans="2:7" ht="18" thickTop="1" thickBot="1">
+      <c r="B67" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="99"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+    </row>
+    <row r="68" spans="2:7" ht="17.25" thickTop="1">
+      <c r="B68" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C68" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D68" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E68" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F68" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G68" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="75">
-      <c r="B27" s="35">
+    <row r="69" spans="2:7" ht="195.75" thickBot="1">
+      <c r="B69" s="103">
         <v>1</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="52"/>
-    </row>
-    <row r="28" spans="2:7" ht="45">
-      <c r="B28" s="35">
-        <v>2</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="2:7" ht="105">
-      <c r="B29" s="35">
-        <v>3</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="2:7" ht="75">
-      <c r="B30" s="35">
-        <v>4</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="2:7" ht="60">
-      <c r="B31" s="35">
-        <v>5</v>
-      </c>
-      <c r="C31" s="49" t="s">
+      <c r="C69" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="2:7" ht="90">
-      <c r="B32" s="35">
-        <v>6</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:9" ht="135.30000000000001" thickBot="1">
-      <c r="B33" s="37">
-        <v>7</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>272</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="35" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B35" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B36" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="60">
-      <c r="B37" s="35">
-        <v>1</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:9" ht="30.6">
-      <c r="B38" s="35">
-        <v>2</v>
-      </c>
-      <c r="C38" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="36"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" ht="105">
-      <c r="B39" s="35">
-        <v>3</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="39"/>
-      <c r="B43" s="35">
-        <v>1</v>
-      </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="35">
-        <v>2</v>
-      </c>
-      <c r="C44" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="35">
-        <v>3</v>
-      </c>
-      <c r="C45" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="35">
-        <v>4</v>
-      </c>
-      <c r="C46" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:9" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="35">
-        <v>5</v>
-      </c>
-      <c r="C47" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="37">
-        <v>6</v>
-      </c>
-      <c r="C48" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="38"/>
-    </row>
-    <row r="49" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-    </row>
-    <row r="50" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B50" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" spans="2:7" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B51" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="35">
-        <v>1</v>
-      </c>
-      <c r="C52" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" spans="2:7" ht="19.899999999999999" customHeight="1">
-      <c r="B53" s="35">
-        <v>2</v>
-      </c>
-      <c r="C53" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="35">
-        <v>3</v>
-      </c>
-      <c r="C54" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="35">
-        <v>4</v>
-      </c>
-      <c r="C55" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G55" s="36"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="35">
-        <v>5</v>
-      </c>
-      <c r="C56" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G56" s="36"/>
-    </row>
-    <row r="57" spans="2:7" ht="15.9" thickBot="1">
-      <c r="B57" s="37">
-        <v>6</v>
-      </c>
-      <c r="C57" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" s="38"/>
-    </row>
-    <row r="58" spans="2:7" ht="15.9" thickTop="1">
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="42"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="41"/>
+      <c r="E69" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="106"/>
+    </row>
+    <row r="70" spans="2:7" ht="16.5" thickTop="1">
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B50:C50"/>
+  <mergeCells count="23">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:E7"/>
@@ -6054,8 +6416,8 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
